--- a/HOAc work/Ni(110)/tpd and ir data/Corrected TPD excel/HOAc_9.3E-09_15 s_724_2 masses TPD_output Acetic Acid.xlsx
+++ b/HOAc work/Ni(110)/tpd and ir data/Corrected TPD excel/HOAc_9.3E-09_15 s_724_2 masses TPD_output Acetic Acid.xlsx
@@ -380,7 +380,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C534"/>
+  <dimension ref="A1:C581"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -399,5865 +399,6382 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1">
-        <v>100.3</v>
+        <v>92.40000000000001</v>
       </c>
       <c r="B2">
-        <v>3444.02433693037</v>
+        <v>4596.677802555207</v>
       </c>
       <c r="C2">
-        <v>7061.060472260478</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1">
-        <v>101.3</v>
+        <v>92.40000000000001</v>
       </c>
       <c r="B3">
-        <v>4331.770921080637</v>
+        <v>1466.677802555207</v>
       </c>
       <c r="C3">
-        <v>6610.763693264957</v>
+        <v>220</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1">
-        <v>102.5</v>
+        <v>92.40000000000001</v>
       </c>
       <c r="B4">
-        <v>4073.066822060953</v>
+        <v>1366.677802555207</v>
       </c>
       <c r="C4">
-        <v>4888.407558470312</v>
+        <v>950</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1">
-        <v>103.6</v>
+        <v>92.40000000000001</v>
       </c>
       <c r="B5">
-        <v>4532.588064626245</v>
+        <v>1626.677802555207</v>
       </c>
       <c r="C5">
-        <v>6782.081101575222</v>
+        <v>690</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1">
-        <v>104.8</v>
+        <v>92.40000000000001</v>
       </c>
       <c r="B6">
-        <v>4063.883965606561</v>
+        <v>1806.677802555207</v>
       </c>
       <c r="C6">
-        <v>7279.724966780593</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1">
-        <v>106</v>
+        <v>92.40000000000001</v>
       </c>
       <c r="B7">
-        <v>4845.179866586881</v>
+        <v>1476.677802555207</v>
       </c>
       <c r="C7">
-        <v>5917.368831985948</v>
+        <v>329.9999999999999</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1">
-        <v>107.2</v>
+        <v>92.40000000000001</v>
       </c>
       <c r="B8">
-        <v>4396.475767567195</v>
+        <v>1176.677802555207</v>
       </c>
       <c r="C8">
-        <v>6675.012697191305</v>
+        <v>970</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1">
-        <v>108.5</v>
+        <v>92.40000000000001</v>
       </c>
       <c r="B9">
-        <v>4399.546326962542</v>
+        <v>1936.677802555207</v>
       </c>
       <c r="C9">
-        <v>6346.626884497122</v>
+        <v>2380</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1">
-        <v>109.7</v>
+        <v>92.40000000000001</v>
       </c>
       <c r="B10">
-        <v>3560.842227942858</v>
+        <v>1486.677802555207</v>
       </c>
       <c r="C10">
-        <v>6334.270749702478</v>
+        <v>1620</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1">
-        <v>110.4</v>
+        <v>92.40000000000001</v>
       </c>
       <c r="B11">
-        <v>3493.264836848045</v>
+        <v>1246.677802555207</v>
       </c>
       <c r="C11">
-        <v>6442.063004405602</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1">
-        <v>111.6</v>
+        <v>92.40000000000001</v>
       </c>
       <c r="B12">
-        <v>3004.56073782836</v>
+        <v>1196.677802555207</v>
       </c>
       <c r="C12">
-        <v>6479.706869610973</v>
+        <v>170</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="1">
-        <v>112.3</v>
+        <v>92.40000000000001</v>
       </c>
       <c r="B13">
-        <v>2766.983346733546</v>
+        <v>1386.677802555207</v>
       </c>
       <c r="C13">
-        <v>6327.499124314097</v>
+        <v>620</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1">
-        <v>113.9</v>
+        <v>92.40000000000001</v>
       </c>
       <c r="B14">
-        <v>2325.377881373969</v>
+        <v>1556.677802555207</v>
       </c>
       <c r="C14">
-        <v>6511.024277921239</v>
+        <v>600</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1">
-        <v>115</v>
+        <v>92.40000000000001</v>
       </c>
       <c r="B15">
-        <v>1794.899123939261</v>
+        <v>1956.677802555207</v>
       </c>
       <c r="C15">
-        <v>5484.697821026148</v>
+        <v>840</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="1">
-        <v>115.7</v>
+        <v>92.40000000000001</v>
       </c>
       <c r="B16">
-        <v>2017.321732844444</v>
+        <v>1416.677802555207</v>
       </c>
       <c r="C16">
-        <v>6862.490075729287</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1">
-        <v>116.7</v>
+        <v>92.40000000000001</v>
       </c>
       <c r="B17">
-        <v>2085.06831699471</v>
+        <v>1216.677802555207</v>
       </c>
       <c r="C17">
-        <v>5692.19329673375</v>
+        <v>1770</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="1">
-        <v>117.7</v>
+        <v>92.40000000000001</v>
       </c>
       <c r="B18">
-        <v>1112.814901144973</v>
+        <v>1466.677802555207</v>
       </c>
       <c r="C18">
-        <v>5371.896517738213</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="1">
-        <v>118.7</v>
+        <v>92.40000000000001</v>
       </c>
       <c r="B19">
-        <v>1060.561485295239</v>
+        <v>1096.677802555207</v>
       </c>
       <c r="C19">
-        <v>5671.599738742677</v>
+        <v>1790</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="1">
-        <v>119.7</v>
+        <v>92.40000000000001</v>
       </c>
       <c r="B20">
-        <v>548.3080694455011</v>
+        <v>1576.677802555207</v>
       </c>
       <c r="C20">
-        <v>5461.302959747155</v>
+        <v>240</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="1">
-        <v>120.7</v>
+        <v>92.5</v>
       </c>
       <c r="B21">
-        <v>796.0546535957674</v>
+        <v>1447.785201703472</v>
       </c>
       <c r="C21">
-        <v>5731.006180751618</v>
+        <v>1071.900014718711</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="1">
-        <v>121.6</v>
+        <v>92.5</v>
       </c>
       <c r="B22">
-        <v>802.0265793310068</v>
+        <v>1727.785201703472</v>
       </c>
       <c r="C22">
-        <v>5286.739079655636</v>
+        <v>1651.900014718711</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="1">
-        <v>122.2</v>
+        <v>92.40000000000001</v>
       </c>
       <c r="B23">
-        <v>652.6745298211631</v>
+        <v>1296.677802555207</v>
       </c>
       <c r="C23">
-        <v>6650.561012258313</v>
+        <v>2300</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="1">
-        <v>123.5</v>
+        <v>92.40000000000001</v>
       </c>
       <c r="B24">
-        <v>695.7450892165089</v>
+        <v>1216.677802555207</v>
       </c>
       <c r="C24">
-        <v>6652.17519956413</v>
+        <v>2950</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="1">
-        <v>124.4</v>
+        <v>92.40000000000001</v>
       </c>
       <c r="B25">
-        <v>601.7170149517447</v>
+        <v>1066.677802555207</v>
       </c>
       <c r="C25">
-        <v>4957.908098468147</v>
+        <v>439.9999999999999</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="1">
-        <v>125</v>
+        <v>92.40000000000001</v>
       </c>
       <c r="B26">
-        <v>172.3649654419046</v>
+        <v>1176.677802555207</v>
       </c>
       <c r="C26">
-        <v>5801.730031070825</v>
+        <v>780</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="1">
-        <v>125.9</v>
+        <v>92.40000000000001</v>
       </c>
       <c r="B27">
-        <v>258.336891177144</v>
+        <v>856.6778025552069</v>
       </c>
       <c r="C27">
-        <v>4967.462929974842</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="1">
-        <v>126.8</v>
+        <v>92.40000000000001</v>
       </c>
       <c r="B28">
-        <v>634.3088169123798</v>
+        <v>276.6778025552067</v>
       </c>
       <c r="C28">
-        <v>5653.195828878874</v>
+        <v>2690</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="1">
-        <v>127.7</v>
+        <v>92.5</v>
       </c>
       <c r="B29">
-        <v>870.2807426476193</v>
+        <v>287.7852017034725</v>
       </c>
       <c r="C29">
-        <v>4648.928727782891</v>
+        <v>2041.900014718711</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="1">
-        <v>128.7</v>
+        <v>92.5</v>
       </c>
       <c r="B30">
-        <v>908.0273267978819</v>
+        <v>667.7852017034725</v>
       </c>
       <c r="C30">
-        <v>5188.631948787353</v>
+        <v>1761.900014718711</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="1">
-        <v>129.6</v>
+        <v>92.59999999999999</v>
       </c>
       <c r="B31">
-        <v>1273.999252533121</v>
+        <v>458.8926008517381</v>
       </c>
       <c r="C31">
-        <v>6104.364847691371</v>
+        <v>2543.800029437421</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="1">
-        <v>130.2</v>
+        <v>92.7</v>
       </c>
       <c r="B32">
-        <v>874.6472030232812</v>
+        <v>0</v>
       </c>
       <c r="C32">
-        <v>6498.186780294049</v>
+        <v>5785.700044156118</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="1">
-        <v>131</v>
+        <v>92.8</v>
       </c>
       <c r="B33">
-        <v>828.8444703434902</v>
+        <v>1161.107399148266</v>
       </c>
       <c r="C33">
-        <v>6599.949357097634</v>
+        <v>7767.600058874828</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="1">
-        <v>132</v>
+        <v>93</v>
       </c>
       <c r="B34">
-        <v>416.5910544937565</v>
+        <v>24703.3221974448</v>
       </c>
       <c r="C34">
-        <v>7049.652578102097</v>
+        <v>13181.40008831223</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="1">
-        <v>132.9</v>
+        <v>93.3</v>
       </c>
       <c r="B35">
-        <v>872.5629802289927</v>
+        <v>19596.64439488959</v>
       </c>
       <c r="C35">
-        <v>6735.385477006114</v>
+        <v>7437.100132468352</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="1">
-        <v>133.8</v>
+        <v>93.59999999999999</v>
       </c>
       <c r="B36">
-        <v>548.5349059642322</v>
+        <v>9079.966592334382</v>
       </c>
       <c r="C36">
-        <v>6681.118375910131</v>
+        <v>7562.80017662447</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="1">
-        <v>134.8</v>
+        <v>94</v>
       </c>
       <c r="B37">
-        <v>1266.281490114494</v>
+        <v>6944.396188927441</v>
       </c>
       <c r="C37">
-        <v>7130.821596914609</v>
+        <v>9630.400235499297</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="1">
-        <v>135.7</v>
+        <v>94.3</v>
       </c>
       <c r="B38">
-        <v>582.2534158497342</v>
+        <v>6677.718386372235</v>
       </c>
       <c r="C38">
-        <v>6896.554495818626</v>
+        <v>12976.10027965541</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="1">
-        <v>136.7</v>
+        <v>94.8</v>
       </c>
       <c r="B39">
-        <v>0</v>
+        <v>6903.255382113555</v>
       </c>
       <c r="C39">
-        <v>7496.25771682309</v>
+        <v>13125.60035324894</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="1">
-        <v>137.6</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="B40">
-        <v>615.9719257352358</v>
+        <v>5569.899777003146</v>
       </c>
       <c r="C40">
-        <v>5831.990615727107</v>
+        <v>13627.00044156117</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="1">
-        <v>138.2</v>
+        <v>96.09999999999999</v>
       </c>
       <c r="B41">
-        <v>776.6198762253957</v>
+        <v>5487.651571040999</v>
       </c>
       <c r="C41">
-        <v>6155.812548329799</v>
+        <v>14450.30054459212</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="1">
-        <v>139.2</v>
+        <v>96.8</v>
       </c>
       <c r="B42">
-        <v>1084.366460375658</v>
+        <v>4445.40336507885</v>
       </c>
       <c r="C42">
-        <v>6535.515769334263</v>
+        <v>12583.60064762305</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="1">
-        <v>140.2</v>
+        <v>97.59999999999999</v>
       </c>
       <c r="B43">
-        <v>1392.113044525925</v>
+        <v>4404.262558264963</v>
       </c>
       <c r="C43">
-        <v>7375.218990338726</v>
+        <v>11458.80076537271</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="1">
-        <v>141.2</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="B44">
-        <v>1879.859628676187</v>
+        <v>4505.336549747612</v>
       </c>
       <c r="C44">
-        <v>7634.92221134319</v>
+        <v>12247.80091255975</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="1">
-        <v>142.2</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="B45">
-        <v>1397.606212826453</v>
+        <v>5996.410541230258</v>
       </c>
       <c r="C45">
-        <v>8194.625432347668</v>
+        <v>12506.80105974682</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="1">
-        <v>142.8</v>
+        <v>100.3</v>
       </c>
       <c r="B46">
-        <v>2158.254163316613</v>
+        <v>5454.162335268109</v>
       </c>
       <c r="C46">
-        <v>8098.447364950345</v>
+        <v>12690.10116277775</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="1">
-        <v>143.8</v>
+        <v>101.3</v>
       </c>
       <c r="B47">
-        <v>2096.000747466875</v>
+        <v>6335.236326750754</v>
       </c>
       <c r="C47">
-        <v>9568.150585954809</v>
+        <v>12219.10130996481</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="1">
-        <v>145.2</v>
+        <v>102.5</v>
       </c>
       <c r="B48">
-        <v>2490.845965277248</v>
+        <v>6068.525116529927</v>
       </c>
       <c r="C48">
-        <v>7503.735095361058</v>
+        <v>10471.90148658928</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="1">
-        <v>145.9</v>
+        <v>103.6</v>
       </c>
       <c r="B49">
-        <v>2373.268574182431</v>
+        <v>6520.706507160838</v>
       </c>
       <c r="C49">
-        <v>7441.527350064182</v>
+        <v>12342.80164849504</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="1">
-        <v>146.8</v>
+        <v>104.8</v>
       </c>
       <c r="B50">
-        <v>3629.24049991767</v>
+        <v>6043.995296940015</v>
       </c>
       <c r="C50">
-        <v>8437.260248968214</v>
+        <v>12815.60182511951</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="1">
-        <v>147.8</v>
+        <v>106</v>
       </c>
       <c r="B51">
-        <v>4136.987084067932</v>
+        <v>6817.284086719186</v>
       </c>
       <c r="C51">
-        <v>7346.963469972677</v>
+        <v>11428.40200174398</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="1">
-        <v>148.8</v>
+        <v>107.2</v>
       </c>
       <c r="B52">
-        <v>6224.733668218199</v>
+        <v>6360.572876498363</v>
       </c>
       <c r="C52">
-        <v>9336.666690977139</v>
+        <v>12161.20217836845</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="1">
-        <v>149.8</v>
+        <v>108.5</v>
       </c>
       <c r="B53">
-        <v>7262.480252368461</v>
+        <v>6354.969065425801</v>
       </c>
       <c r="C53">
-        <v>9486.369911981617</v>
+        <v>11805.90236971163</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="1">
-        <v>150.8</v>
+        <v>109.7</v>
       </c>
       <c r="B54">
-        <v>8980.226836518726</v>
+        <v>5508.257855204978</v>
       </c>
       <c r="C54">
-        <v>9686.073132986081</v>
+        <v>11768.7025463361</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="1">
-        <v>151.8</v>
+        <v>110.4</v>
       </c>
       <c r="B55">
-        <v>11037.97342066899</v>
+        <v>5436.009649242829</v>
       </c>
       <c r="C55">
-        <v>9455.776353990545</v>
+        <v>11862.00264936703</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" s="1">
-        <v>152.5</v>
+        <v>111.6</v>
       </c>
       <c r="B56">
-        <v>12990.39602957418</v>
+        <v>4939.298439022003</v>
       </c>
       <c r="C56">
-        <v>10153.56860869367</v>
+        <v>11874.8028259915</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" s="1">
-        <v>153.4</v>
+        <v>112.3</v>
       </c>
       <c r="B57">
-        <v>17116.36795530941</v>
+        <v>4697.050233059857</v>
       </c>
       <c r="C57">
-        <v>11549.30150759769</v>
+        <v>11708.10292902244</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" s="1">
-        <v>154.5</v>
+        <v>113.9</v>
       </c>
       <c r="B58">
-        <v>21445.88919787471</v>
+        <v>4244.768619432089</v>
       </c>
       <c r="C58">
-        <v>12882.97505070261</v>
+        <v>11858.50316452174</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" s="1">
-        <v>155.4</v>
+        <v>115</v>
       </c>
       <c r="B59">
-        <v>26881.86112360994</v>
+        <v>3706.950010063</v>
       </c>
       <c r="C59">
-        <v>14478.70794960663</v>
+        <v>10809.4033264275</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" s="1">
-        <v>156.4</v>
+        <v>115.7</v>
       </c>
       <c r="B60">
-        <v>32969.60770776022</v>
+        <v>3924.701804100851</v>
       </c>
       <c r="C60">
-        <v>16278.41117061109</v>
+        <v>12172.70342945843</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" s="1">
-        <v>157.3</v>
+        <v>116.7</v>
       </c>
       <c r="B61">
-        <v>39485.57963349544</v>
+        <v>3985.775795583497</v>
       </c>
       <c r="C61">
-        <v>17184.14406951512</v>
+        <v>10981.70357664549</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" s="1">
-        <v>158.3</v>
+        <v>117.7</v>
       </c>
       <c r="B62">
-        <v>46953.3262176457</v>
+        <v>3006.849787066142</v>
       </c>
       <c r="C62">
-        <v>19763.84729051958</v>
+        <v>10640.70372383255</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" s="1">
-        <v>159.3</v>
+        <v>118.7</v>
       </c>
       <c r="B63">
-        <v>57231.07280179598</v>
+        <v>2947.923778548787</v>
       </c>
       <c r="C63">
-        <v>22113.55051152405</v>
+        <v>10919.7038710196</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" s="1">
-        <v>160.3</v>
+        <v>119.7</v>
       </c>
       <c r="B64">
-        <v>69038.81938594625</v>
+        <v>2428.997770031432</v>
       </c>
       <c r="C64">
-        <v>22943.25373252851</v>
+        <v>10688.70401820667</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" s="1">
-        <v>160.9</v>
+        <v>120.7</v>
       </c>
       <c r="B65">
-        <v>80979.46733643641</v>
+        <v>2670.071761514081</v>
       </c>
       <c r="C65">
-        <v>26617.07566513119</v>
+        <v>10937.70416539373</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" s="1">
-        <v>161.9</v>
+        <v>121.6</v>
       </c>
       <c r="B66">
-        <v>97427.21392058667</v>
+        <v>2670.03835384846</v>
       </c>
       <c r="C66">
-        <v>31676.77888613567</v>
+        <v>10474.80429786208</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" s="1">
-        <v>162.9</v>
+        <v>122.2</v>
       </c>
       <c r="B67">
-        <v>108094.9605047369</v>
+        <v>2516.682748738046</v>
       </c>
       <c r="C67">
-        <v>30576.48210714013</v>
+        <v>11826.20438617432</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" s="1">
-        <v>163.8</v>
+        <v>123.5</v>
       </c>
       <c r="B68">
-        <v>117260.9324304722</v>
+        <v>2551.078937665488</v>
       </c>
       <c r="C68">
-        <v>32642.21500604415</v>
+        <v>11800.90457751748</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" s="1">
-        <v>164.8</v>
+        <v>124.4</v>
       </c>
       <c r="B69">
-        <v>116758.6790146224</v>
+        <v>2451.045529999868</v>
       </c>
       <c r="C69">
-        <v>31611.91822704863</v>
+        <v>10088.00470998583</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" s="1">
-        <v>165.8</v>
+        <v>125</v>
       </c>
       <c r="B70">
-        <v>103856.4255987727</v>
+        <v>2017.689924889454</v>
       </c>
       <c r="C70">
-        <v>26311.62144805309</v>
+        <v>10919.40479829807</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" s="1">
-        <v>166.7</v>
+        <v>125.9</v>
       </c>
       <c r="B71">
-        <v>78502.39752450793</v>
+        <v>2097.656517223837</v>
       </c>
       <c r="C71">
-        <v>23747.35434695711</v>
+        <v>10066.50493076642</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" s="1">
-        <v>167.3</v>
+        <v>126.8</v>
       </c>
       <c r="B72">
-        <v>60583.04547499809</v>
+        <v>2467.623109558217</v>
       </c>
       <c r="C72">
-        <v>22471.17627955978</v>
+        <v>10733.60506323477</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" s="1">
-        <v>168.3</v>
+        <v>127.7</v>
       </c>
       <c r="B73">
-        <v>53350.79205914835</v>
+        <v>2697.5897018926</v>
       </c>
       <c r="C73">
-        <v>23420.87950056425</v>
+        <v>9710.705195703124</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" s="1">
-        <v>169.2</v>
+        <v>128.7</v>
       </c>
       <c r="B74">
-        <v>51096.76398488359</v>
+        <v>2728.663693375245</v>
       </c>
       <c r="C74">
-        <v>22756.61239946828</v>
+        <v>10229.70534289019</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" s="1">
-        <v>170.2</v>
+        <v>129.6</v>
       </c>
       <c r="B75">
-        <v>50244.51056903386</v>
+        <v>3088.630285709624</v>
       </c>
       <c r="C75">
-        <v>20996.31562047274</v>
+        <v>11126.80547535854</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" s="1">
-        <v>171.2</v>
+        <v>130.2</v>
       </c>
       <c r="B76">
-        <v>50292.25715318412</v>
+        <v>2685.274680599214</v>
       </c>
       <c r="C76">
-        <v>21746.01884147721</v>
+        <v>11508.20556367077</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" s="1">
-        <v>172.1</v>
+        <v>131</v>
       </c>
       <c r="B77">
-        <v>52068.22907891936</v>
+        <v>2634.133873785328</v>
       </c>
       <c r="C77">
-        <v>22381.75174038124</v>
+        <v>11593.40568142042</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" s="1">
-        <v>173.1</v>
+        <v>132</v>
       </c>
       <c r="B78">
-        <v>54705.97566306963</v>
+        <v>2215.207865267973</v>
       </c>
       <c r="C78">
-        <v>22891.4549613857</v>
+        <v>12022.40582860746</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" s="1">
-        <v>174.1</v>
+        <v>132.9</v>
       </c>
       <c r="B79">
-        <v>56233.72224721988</v>
+        <v>2665.174457602357</v>
       </c>
       <c r="C79">
-        <v>22861.15818239017</v>
+        <v>11689.50596107581</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" s="1">
-        <v>174.7</v>
+        <v>133.8</v>
       </c>
       <c r="B80">
-        <v>58294.37019771004</v>
+        <v>2335.141049936736</v>
       </c>
       <c r="C80">
-        <v>22944.98011499284</v>
+        <v>11616.60609354417</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" s="1">
-        <v>175.7</v>
+        <v>134.8</v>
       </c>
       <c r="B81">
-        <v>58492.11678186032</v>
+        <v>3046.215041419385</v>
       </c>
       <c r="C81">
-        <v>22394.68333599731</v>
+        <v>12045.60624073123</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" s="1">
-        <v>176.7</v>
+        <v>135.7</v>
       </c>
       <c r="B82">
-        <v>54589.86336601058</v>
+        <v>2356.181633753764</v>
       </c>
       <c r="C82">
-        <v>22284.38655700178</v>
+        <v>11792.70637319958</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" s="1">
-        <v>177.6</v>
+        <v>136.7</v>
       </c>
       <c r="B83">
-        <v>47285.8352917458</v>
+        <v>1767.255625236409</v>
       </c>
       <c r="C83">
-        <v>19860.1194559058</v>
+        <v>12371.70652038665</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" s="1">
-        <v>178.6</v>
+        <v>137.6</v>
       </c>
       <c r="B84">
-        <v>40133.58187589609</v>
+        <v>2377.222217570793</v>
       </c>
       <c r="C84">
-        <v>19639.82267691026</v>
+        <v>10688.806652855</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" s="1">
-        <v>179.6</v>
+        <v>138.2</v>
       </c>
       <c r="B85">
-        <v>34811.32846004634</v>
+        <v>2533.866612460379</v>
       </c>
       <c r="C85">
-        <v>18629.52589791474</v>
+        <v>11000.20674116723</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" s="1">
-        <v>180.5</v>
+        <v>139.2</v>
       </c>
       <c r="B86">
-        <v>31217.30038578159</v>
+        <v>2834.940603943024</v>
       </c>
       <c r="C86">
-        <v>16655.25879681876</v>
+        <v>11359.20688835428</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" s="1">
-        <v>181.5</v>
+        <v>140.2</v>
       </c>
       <c r="B87">
-        <v>28785.04696993184</v>
+        <v>3136.014595425669</v>
       </c>
       <c r="C87">
-        <v>18084.96201782322</v>
+        <v>12178.20703554134</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" s="1">
-        <v>182.5</v>
+        <v>141.2</v>
       </c>
       <c r="B88">
-        <v>26092.79355408211</v>
+        <v>3617.088586908314</v>
       </c>
       <c r="C88">
-        <v>15744.66523882769</v>
+        <v>12417.20718272841</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" s="1">
-        <v>183.1</v>
+        <v>142.2</v>
       </c>
       <c r="B89">
-        <v>24373.44150457227</v>
+        <v>3128.162578390959</v>
       </c>
       <c r="C89">
-        <v>16128.48717143036</v>
+        <v>12956.20732991545</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" s="1">
-        <v>184.1</v>
+        <v>142.8</v>
       </c>
       <c r="B90">
-        <v>23631.18808872253</v>
+        <v>3884.806973280549</v>
       </c>
       <c r="C90">
-        <v>16038.19039243484</v>
+        <v>12847.60741822769</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" s="1">
-        <v>185.1</v>
+        <v>143.8</v>
       </c>
       <c r="B91">
-        <v>22348.93467287279</v>
+        <v>3815.880964763194</v>
       </c>
       <c r="C91">
-        <v>13417.8936134393</v>
+        <v>14296.60756541475</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" s="1">
-        <v>186</v>
+        <v>145.2</v>
       </c>
       <c r="B92">
-        <v>20564.90659860804</v>
+        <v>4201.384552838897</v>
       </c>
       <c r="C92">
-        <v>16163.62651234332</v>
+        <v>12203.20777147663</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" s="1">
-        <v>187</v>
+        <v>145.9</v>
       </c>
       <c r="B93">
-        <v>19832.6531827583</v>
+        <v>4079.13634687675</v>
       </c>
       <c r="C93">
-        <v>13223.32973334778</v>
+        <v>12126.50787450756</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" s="1">
-        <v>188</v>
+        <v>146.8</v>
       </c>
       <c r="B94">
-        <v>17840.39976690856</v>
+        <v>5329.102939211129</v>
       </c>
       <c r="C94">
-        <v>15003.03295435226</v>
+        <v>13103.60800697591</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" s="1">
-        <v>189</v>
+        <v>147.8</v>
       </c>
       <c r="B95">
-        <v>17308.14635105883</v>
+        <v>5830.176930693779</v>
       </c>
       <c r="C95">
-        <v>12422.73617535673</v>
+        <v>11992.60815416297</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" s="1">
-        <v>189.9</v>
+        <v>148.8</v>
       </c>
       <c r="B96">
-        <v>16604.11827679406</v>
+        <v>7911.250922176423</v>
       </c>
       <c r="C96">
-        <v>13428.46907426074</v>
+        <v>13961.60830135004</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" s="1">
-        <v>190.6</v>
+        <v>149.8</v>
       </c>
       <c r="B97">
-        <v>16516.54088569925</v>
+        <v>8942.324913659068</v>
       </c>
       <c r="C97">
-        <v>11966.26132896387</v>
+        <v>14090.60844853708</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" s="1">
-        <v>191.6</v>
+        <v>150.8</v>
       </c>
       <c r="B98">
-        <v>15464.28746984952</v>
+        <v>10653.39890514171</v>
       </c>
       <c r="C98">
-        <v>13685.96454996834</v>
+        <v>14269.60859572415</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" s="1">
-        <v>192.6</v>
+        <v>151.8</v>
       </c>
       <c r="B99">
-        <v>15202.03405399978</v>
+        <v>12704.47289662436</v>
       </c>
       <c r="C99">
-        <v>12935.66777097281</v>
+        <v>14018.60874291121</v>
       </c>
     </row>
     <row r="100" spans="1:3">
       <c r="A100" s="1">
-        <v>193.5</v>
+        <v>152.5</v>
       </c>
       <c r="B100">
-        <v>15618.00597973502</v>
+        <v>14652.22469066221</v>
       </c>
       <c r="C100">
-        <v>12781.40066987683</v>
+        <v>14701.90884594214</v>
       </c>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" s="1">
-        <v>194.5</v>
+        <v>153.4</v>
       </c>
       <c r="B101">
-        <v>15035.75256388528</v>
+        <v>18772.19128299659</v>
       </c>
       <c r="C101">
-        <v>13521.10389088129</v>
+        <v>16079.00897841049</v>
       </c>
     </row>
     <row r="102" spans="1:3">
       <c r="A102" s="1">
-        <v>195.5</v>
+        <v>154.5</v>
       </c>
       <c r="B102">
-        <v>14783.49914803555</v>
+        <v>23094.3726736275</v>
       </c>
       <c r="C102">
-        <v>12340.80711188577</v>
+        <v>17389.90914031627</v>
       </c>
     </row>
     <row r="103" spans="1:3">
       <c r="A103" s="1">
-        <v>196.4</v>
+        <v>155.4</v>
       </c>
       <c r="B103">
-        <v>13959.47107377078</v>
+        <v>28524.33926596189</v>
       </c>
       <c r="C103">
-        <v>13316.54001078978</v>
+        <v>18967.00927278462</v>
       </c>
     </row>
     <row r="104" spans="1:3">
       <c r="A104" s="1">
-        <v>197.4</v>
+        <v>156.4</v>
       </c>
       <c r="B104">
-        <v>14247.21765792105</v>
+        <v>34605.41325744452</v>
       </c>
       <c r="C104">
-        <v>11806.24323179425</v>
+        <v>20746.00941997167</v>
       </c>
     </row>
     <row r="105" spans="1:3">
       <c r="A105" s="1">
-        <v>198.4</v>
+        <v>157.3</v>
       </c>
       <c r="B105">
-        <v>13654.96424207132</v>
+        <v>41115.37984977891</v>
       </c>
       <c r="C105">
-        <v>13905.94645279871</v>
+        <v>21633.10955244002</v>
       </c>
     </row>
     <row r="106" spans="1:3">
       <c r="A106" s="1">
-        <v>199.1</v>
+        <v>158.3</v>
       </c>
       <c r="B106">
-        <v>13987.3868509765</v>
+        <v>48576.45384126156</v>
       </c>
       <c r="C106">
-        <v>12963.73870750185</v>
+        <v>24192.10969962708</v>
       </c>
     </row>
     <row r="107" spans="1:3">
       <c r="A107" s="1">
-        <v>200</v>
+        <v>159.3</v>
       </c>
       <c r="B107">
-        <v>13873.35877671174</v>
+        <v>58847.52783274421</v>
       </c>
       <c r="C107">
-        <v>12629.47160640587</v>
+        <v>26521.10984681413</v>
       </c>
     </row>
     <row r="108" spans="1:3">
       <c r="A108" s="1">
-        <v>201</v>
+        <v>160.3</v>
       </c>
       <c r="B108">
-        <v>13421.105360862</v>
+        <v>70648.60182422686</v>
       </c>
       <c r="C108">
-        <v>12649.17482741033</v>
+        <v>27330.10999400119</v>
       </c>
     </row>
     <row r="109" spans="1:3">
       <c r="A109" s="1">
-        <v>202</v>
+        <v>160.9</v>
       </c>
       <c r="B109">
-        <v>13498.85194501227</v>
+        <v>82585.24621911644</v>
       </c>
       <c r="C109">
-        <v>12238.87804841479</v>
+        <v>30991.51008231343</v>
       </c>
     </row>
     <row r="110" spans="1:3">
       <c r="A110" s="1">
-        <v>203</v>
+        <v>161.9</v>
       </c>
       <c r="B110">
-        <v>12856.59852916253</v>
+        <v>99026.32021059908</v>
       </c>
       <c r="C110">
-        <v>11888.58126941927</v>
+        <v>36030.51022950048</v>
       </c>
     </row>
     <row r="111" spans="1:3">
       <c r="A111" s="1">
-        <v>204</v>
+        <v>162.9</v>
       </c>
       <c r="B111">
-        <v>13224.3451133128</v>
+        <v>109687.3942020817</v>
       </c>
       <c r="C111">
-        <v>11828.28449042373</v>
+        <v>34909.51037668754</v>
       </c>
     </row>
     <row r="112" spans="1:3">
       <c r="A112" s="1">
-        <v>204.9</v>
+        <v>163.8</v>
       </c>
       <c r="B112">
-        <v>12830.31703904804</v>
+        <v>118847.3607944161</v>
       </c>
       <c r="C112">
-        <v>11424.01738932775</v>
+        <v>36956.61050915589</v>
       </c>
     </row>
     <row r="113" spans="1:3">
       <c r="A113" s="1">
-        <v>205.9</v>
+        <v>164.8</v>
       </c>
       <c r="B113">
-        <v>12898.0636231983</v>
+        <v>118338.4347858987</v>
       </c>
       <c r="C113">
-        <v>10163.72061033222</v>
+        <v>35905.61065634295</v>
       </c>
     </row>
     <row r="114" spans="1:3">
       <c r="A114" s="1">
-        <v>206.9</v>
+        <v>165.8</v>
       </c>
       <c r="B114">
-        <v>12365.81020734856</v>
+        <v>105429.5087773814</v>
       </c>
       <c r="C114">
-        <v>11973.42383133669</v>
+        <v>30584.61080353</v>
       </c>
     </row>
     <row r="115" spans="1:3">
       <c r="A115" s="1">
-        <v>207.5</v>
+        <v>166.7</v>
       </c>
       <c r="B115">
-        <v>12956.45815783872</v>
+        <v>80069.47536971577</v>
       </c>
       <c r="C115">
-        <v>13387.24576393937</v>
+        <v>28001.71093599835</v>
       </c>
     </row>
     <row r="116" spans="1:3">
       <c r="A116" s="1">
-        <v>208.5</v>
+        <v>167.3</v>
       </c>
       <c r="B116">
-        <v>12244.20474198899</v>
+        <v>62146.11976460536</v>
       </c>
       <c r="C116">
-        <v>12386.94898494383</v>
+        <v>26713.11102431059</v>
       </c>
     </row>
     <row r="117" spans="1:3">
       <c r="A117" s="1">
-        <v>209.5</v>
+        <v>168.3</v>
       </c>
       <c r="B117">
-        <v>12491.95132613925</v>
+        <v>54907.19375608802</v>
       </c>
       <c r="C117">
-        <v>11216.6522059483</v>
+        <v>27642.11117149765</v>
       </c>
     </row>
     <row r="118" spans="1:3">
       <c r="A118" s="1">
-        <v>210.5</v>
+        <v>169.2</v>
       </c>
       <c r="B118">
-        <v>12129.69791028952</v>
+        <v>52647.1603484224</v>
       </c>
       <c r="C118">
-        <v>11486.35542695278</v>
+        <v>26959.211303966</v>
       </c>
     </row>
     <row r="119" spans="1:3">
       <c r="A119" s="1">
-        <v>211.4</v>
+        <v>170.2</v>
       </c>
       <c r="B119">
-        <v>12045.66983602475</v>
+        <v>51788.23433990504</v>
       </c>
       <c r="C119">
-        <v>12112.08832585679</v>
+        <v>25178.21145115307</v>
       </c>
     </row>
     <row r="120" spans="1:3">
       <c r="A120" s="1">
-        <v>212.4</v>
+        <v>171.2</v>
       </c>
       <c r="B120">
-        <v>11813.41642017502</v>
+        <v>51829.30833138769</v>
       </c>
       <c r="C120">
-        <v>10781.79154686126</v>
+        <v>25907.21159834011</v>
       </c>
     </row>
     <row r="121" spans="1:3">
       <c r="A121" s="1">
-        <v>213.1</v>
+        <v>172.1</v>
       </c>
       <c r="B121">
-        <v>12215.8390290802</v>
+        <v>53599.27492372207</v>
       </c>
       <c r="C121">
-        <v>10899.58380156438</v>
+        <v>26524.31173080847</v>
       </c>
     </row>
     <row r="122" spans="1:3">
       <c r="A122" s="1">
-        <v>214</v>
+        <v>173.1</v>
       </c>
       <c r="B122">
-        <v>11691.81095481544</v>
+        <v>56230.34891520472</v>
       </c>
       <c r="C122">
-        <v>11735.3167004684</v>
+        <v>27013.31187799553</v>
       </c>
     </row>
     <row r="123" spans="1:3">
       <c r="A123" s="1">
-        <v>215</v>
+        <v>174.1</v>
       </c>
       <c r="B123">
-        <v>11669.5575389657</v>
+        <v>57751.42290668735</v>
       </c>
       <c r="C123">
-        <v>11195.01992147287</v>
+        <v>26962.31202518259</v>
       </c>
     </row>
     <row r="124" spans="1:3">
       <c r="A124" s="1">
-        <v>215.9</v>
+        <v>174.7</v>
       </c>
       <c r="B124">
-        <v>11345.52946470094</v>
+        <v>59808.06730157694</v>
       </c>
       <c r="C124">
-        <v>11030.75282037689</v>
+        <v>27033.71211349482</v>
       </c>
     </row>
     <row r="125" spans="1:3">
       <c r="A125" s="1">
-        <v>216.9</v>
+        <v>175.7</v>
       </c>
       <c r="B125">
-        <v>10523.27604885121</v>
+        <v>59999.14129305959</v>
       </c>
       <c r="C125">
-        <v>11020.45604138135</v>
+        <v>26462.71226068187</v>
       </c>
     </row>
     <row r="126" spans="1:3">
       <c r="A126" s="1">
-        <v>217.9</v>
+        <v>176.7</v>
       </c>
       <c r="B126">
-        <v>11931.02263300147</v>
+        <v>56090.21528454224</v>
       </c>
       <c r="C126">
-        <v>10930.15926238583</v>
+        <v>26331.71240786894</v>
       </c>
     </row>
     <row r="127" spans="1:3">
       <c r="A127" s="1">
-        <v>218.9</v>
+        <v>177.6</v>
       </c>
       <c r="B127">
-        <v>11408.76921715174</v>
+        <v>48780.18187687662</v>
       </c>
       <c r="C127">
-        <v>11369.8624833903</v>
+        <v>23888.81254033729</v>
       </c>
     </row>
     <row r="128" spans="1:3">
       <c r="A128" s="1">
-        <v>219.9</v>
+        <v>178.6</v>
       </c>
       <c r="B128">
-        <v>11146.515801302</v>
+        <v>41621.25586835926</v>
       </c>
       <c r="C128">
-        <v>9659.565704394759</v>
+        <v>23647.81268752434</v>
       </c>
     </row>
     <row r="129" spans="1:3">
       <c r="A129" s="1">
-        <v>220.8</v>
+        <v>179.6</v>
       </c>
       <c r="B129">
-        <v>10912.48772703724</v>
+        <v>36292.32985984191</v>
       </c>
       <c r="C129">
-        <v>10335.29860329878</v>
+        <v>22616.8128347114</v>
       </c>
     </row>
     <row r="130" spans="1:3">
       <c r="A130" s="1">
-        <v>221.5</v>
+        <v>180.5</v>
       </c>
       <c r="B130">
-        <v>10804.91033594242</v>
+        <v>32692.29645217629</v>
       </c>
       <c r="C130">
-        <v>10763.0908580019</v>
+        <v>20623.91296717975</v>
       </c>
     </row>
     <row r="131" spans="1:3">
       <c r="A131" s="1">
-        <v>222.5</v>
+        <v>181.5</v>
       </c>
       <c r="B131">
-        <v>10662.65692009269</v>
+        <v>30253.37044365894</v>
       </c>
       <c r="C131">
-        <v>8642.794079006379</v>
+        <v>22032.9131143668</v>
       </c>
     </row>
     <row r="132" spans="1:3">
       <c r="A132" s="1">
-        <v>223.5</v>
+        <v>182.5</v>
       </c>
       <c r="B132">
-        <v>10570.40350424296</v>
+        <v>27554.44443514158</v>
       </c>
       <c r="C132">
-        <v>10562.49730001084</v>
+        <v>19671.91326155386</v>
       </c>
     </row>
     <row r="133" spans="1:3">
       <c r="A133" s="1">
-        <v>224.4</v>
+        <v>183.1</v>
       </c>
       <c r="B133">
-        <v>10216.37542997819</v>
+        <v>25831.08883003117</v>
       </c>
       <c r="C133">
-        <v>9768.230198914858</v>
+        <v>20043.3133498661</v>
       </c>
     </row>
     <row r="134" spans="1:3">
       <c r="A134" s="1">
-        <v>225.4</v>
+        <v>184.1</v>
       </c>
       <c r="B134">
-        <v>10544.12201412846</v>
+        <v>25082.16282151382</v>
       </c>
       <c r="C134">
-        <v>8907.933419919336</v>
+        <v>19932.31349705316</v>
       </c>
     </row>
     <row r="135" spans="1:3">
       <c r="A135" s="1">
-        <v>226.4</v>
+        <v>185.1</v>
       </c>
       <c r="B135">
-        <v>10751.86859827872</v>
+        <v>23793.23681299646</v>
       </c>
       <c r="C135">
-        <v>9947.6366409238</v>
+        <v>17291.31364424021</v>
       </c>
     </row>
     <row r="136" spans="1:3">
       <c r="A136" s="1">
-        <v>227.4</v>
+        <v>186</v>
       </c>
       <c r="B136">
-        <v>10379.61518242898</v>
+        <v>22003.20340533084</v>
       </c>
       <c r="C136">
-        <v>9687.339861928263</v>
+        <v>20018.41377670856</v>
       </c>
     </row>
     <row r="137" spans="1:3">
       <c r="A137" s="1">
-        <v>228.4</v>
+        <v>187</v>
       </c>
       <c r="B137">
-        <v>10497.36176657925</v>
+        <v>21264.27739681349</v>
       </c>
       <c r="C137">
-        <v>8947.043082932727</v>
+        <v>17057.41392389562</v>
       </c>
     </row>
     <row r="138" spans="1:3">
       <c r="A138" s="1">
-        <v>229.3</v>
+        <v>188</v>
       </c>
       <c r="B138">
-        <v>10273.33369231449</v>
+        <v>19265.35138829614</v>
       </c>
       <c r="C138">
-        <v>12142.77598183674</v>
+        <v>18816.41407108269</v>
       </c>
     </row>
     <row r="139" spans="1:3">
       <c r="A139" s="1">
-        <v>230</v>
+        <v>189</v>
       </c>
       <c r="B139">
-        <v>10635.75630121968</v>
+        <v>18726.42537977878</v>
       </c>
       <c r="C139">
-        <v>10820.56823653988</v>
+        <v>16215.41421826973</v>
       </c>
     </row>
     <row r="140" spans="1:3">
       <c r="A140" s="1">
-        <v>231</v>
+        <v>189.9</v>
       </c>
       <c r="B140">
-        <v>10463.50288536993</v>
+        <v>18016.39197211315</v>
       </c>
       <c r="C140">
-        <v>10160.27145754435</v>
+        <v>17202.51435073809</v>
       </c>
     </row>
     <row r="141" spans="1:3">
       <c r="A141" s="1">
-        <v>231.9</v>
+        <v>190.6</v>
       </c>
       <c r="B141">
-        <v>10299.47481110518</v>
+        <v>17924.14376615101</v>
       </c>
       <c r="C141">
-        <v>9516.004356448364</v>
+        <v>15725.81445376903</v>
       </c>
     </row>
     <row r="142" spans="1:3">
       <c r="A142" s="1">
-        <v>232.9</v>
+        <v>191.6</v>
       </c>
       <c r="B142">
-        <v>9257.221395255439</v>
+        <v>16865.21775763365</v>
       </c>
       <c r="C142">
-        <v>9785.707577452842</v>
+        <v>17424.81460095608</v>
       </c>
     </row>
     <row r="143" spans="1:3">
       <c r="A143" s="1">
-        <v>233.9</v>
+        <v>192.6</v>
       </c>
       <c r="B143">
-        <v>9894.967979405701</v>
+        <v>16596.2917491163</v>
       </c>
       <c r="C143">
-        <v>9085.410798457306</v>
+        <v>16653.81474814314</v>
       </c>
     </row>
     <row r="144" spans="1:3">
       <c r="A144" s="1">
-        <v>234.9</v>
+        <v>193.5</v>
       </c>
       <c r="B144">
-        <v>10052.71456355597</v>
+        <v>17006.25834145068</v>
       </c>
       <c r="C144">
-        <v>8635.114019461767</v>
+        <v>16480.9148806115</v>
       </c>
     </row>
     <row r="145" spans="1:3">
       <c r="A145" s="1">
-        <v>235.5</v>
+        <v>194.5</v>
       </c>
       <c r="B145">
-        <v>9603.362514046128</v>
+        <v>16417.33233293333</v>
       </c>
       <c r="C145">
-        <v>9088.935952064447</v>
+        <v>17199.91502779854</v>
       </c>
     </row>
     <row r="146" spans="1:3">
       <c r="A146" s="1">
-        <v>236.8</v>
+        <v>195.5</v>
       </c>
       <c r="B146">
-        <v>9656.433073441471</v>
+        <v>16158.40632441597</v>
       </c>
       <c r="C146">
-        <v>9240.550139370247</v>
+        <v>15998.91517498561</v>
       </c>
     </row>
     <row r="147" spans="1:3">
       <c r="A147" s="1">
-        <v>237.8</v>
+        <v>196.4</v>
       </c>
       <c r="B147">
-        <v>9314.179657591736</v>
+        <v>15328.37291675036</v>
       </c>
       <c r="C147">
-        <v>9610.253360374725</v>
+        <v>16956.01530745396</v>
       </c>
     </row>
     <row r="148" spans="1:3">
       <c r="A148" s="1">
-        <v>238.4</v>
+        <v>197.4</v>
       </c>
       <c r="B148">
-        <v>9304.827608081892</v>
+        <v>15609.446908233</v>
       </c>
       <c r="C148">
-        <v>8454.075292977404</v>
+        <v>15425.01545464102</v>
       </c>
     </row>
     <row r="149" spans="1:3">
       <c r="A149" s="1">
-        <v>239.4</v>
+        <v>198.4</v>
       </c>
       <c r="B149">
-        <v>8932.574192232158</v>
+        <v>15010.52089971565</v>
       </c>
       <c r="C149">
-        <v>7313.778513981868</v>
+        <v>17504.01560182807</v>
       </c>
     </row>
     <row r="150" spans="1:3">
       <c r="A150" s="1">
-        <v>240.4</v>
+        <v>199.1</v>
       </c>
       <c r="B150">
-        <v>8750.320776382421</v>
+        <v>15338.2726937535</v>
       </c>
       <c r="C150">
-        <v>9033.481734986344</v>
+        <v>16547.31570485901</v>
       </c>
     </row>
     <row r="151" spans="1:3">
       <c r="A151" s="1">
-        <v>241.4</v>
+        <v>200</v>
       </c>
       <c r="B151">
-        <v>8638.067360532687</v>
+        <v>15218.23928608788</v>
       </c>
       <c r="C151">
-        <v>10083.18495599081</v>
+        <v>16194.41583732737</v>
       </c>
     </row>
     <row r="152" spans="1:3">
       <c r="A152" s="1">
-        <v>242.4</v>
+        <v>201</v>
       </c>
       <c r="B152">
-        <v>8695.813944682954</v>
+        <v>14759.31327757052</v>
       </c>
       <c r="C152">
-        <v>8272.888176995271</v>
+        <v>16193.41598451443</v>
       </c>
     </row>
     <row r="153" spans="1:3">
       <c r="A153" s="1">
-        <v>243.3</v>
+        <v>202</v>
       </c>
       <c r="B153">
-        <v>8241.785870418189</v>
+        <v>14830.38726905317</v>
       </c>
       <c r="C153">
-        <v>8588.621075899289</v>
+        <v>15762.41613170148</v>
       </c>
     </row>
     <row r="154" spans="1:3">
       <c r="A154" s="1">
-        <v>244.3</v>
+        <v>203</v>
       </c>
       <c r="B154">
-        <v>8449.532454568456</v>
+        <v>14181.46126053581</v>
       </c>
       <c r="C154">
-        <v>8768.324296903753</v>
+        <v>15391.41627888854</v>
       </c>
     </row>
     <row r="155" spans="1:3">
       <c r="A155" s="1">
-        <v>245.3</v>
+        <v>204</v>
       </c>
       <c r="B155">
-        <v>8217.279038718718</v>
+        <v>14542.53525201846</v>
       </c>
       <c r="C155">
-        <v>10338.02751790823</v>
+        <v>15310.4164260756</v>
       </c>
     </row>
     <row r="156" spans="1:3">
       <c r="A156" s="1">
-        <v>245.9</v>
+        <v>204.9</v>
       </c>
       <c r="B156">
-        <v>7817.926989208878</v>
+        <v>14142.50184435284</v>
       </c>
       <c r="C156">
-        <v>7641.849450510908</v>
+        <v>14887.51655854394</v>
       </c>
     </row>
     <row r="157" spans="1:3">
       <c r="A157" s="1">
-        <v>246.9</v>
+        <v>205.9</v>
       </c>
       <c r="B157">
-        <v>8035.673573359139</v>
+        <v>14203.57583583549</v>
       </c>
       <c r="C157">
-        <v>9931.552671515372</v>
+        <v>13606.516705731</v>
       </c>
     </row>
     <row r="158" spans="1:3">
       <c r="A158" s="1">
-        <v>247.9</v>
+        <v>206.9</v>
       </c>
       <c r="B158">
-        <v>8153.420157509407</v>
+        <v>13664.64982731813</v>
       </c>
       <c r="C158">
-        <v>7951.25589251985</v>
+        <v>15395.51685291807</v>
       </c>
     </row>
     <row r="159" spans="1:3">
       <c r="A159" s="1">
-        <v>248.8</v>
+        <v>207.5</v>
       </c>
       <c r="B159">
-        <v>7019.392083244642</v>
+        <v>14251.29422220772</v>
       </c>
       <c r="C159">
-        <v>8146.988791423866</v>
+        <v>16796.9169412303</v>
       </c>
     </row>
     <row r="160" spans="1:3">
       <c r="A160" s="1">
-        <v>249.8</v>
+        <v>208.5</v>
       </c>
       <c r="B160">
-        <v>7637.138667394909</v>
+        <v>13532.36821369037</v>
       </c>
       <c r="C160">
-        <v>7516.69201242833</v>
+        <v>15775.91708841735</v>
       </c>
     </row>
     <row r="161" spans="1:3">
       <c r="A161" s="1">
-        <v>250.8</v>
+        <v>209.5</v>
       </c>
       <c r="B161">
-        <v>6904.885251545174</v>
+        <v>13773.44220517302</v>
       </c>
       <c r="C161">
-        <v>9166.395233432793</v>
+        <v>14584.91723560441</v>
       </c>
     </row>
     <row r="162" spans="1:3">
       <c r="A162" s="1">
-        <v>251.4</v>
+        <v>210.5</v>
       </c>
       <c r="B162">
-        <v>6925.533202035331</v>
+        <v>13404.51619665566</v>
       </c>
       <c r="C162">
-        <v>7800.217166035471</v>
+        <v>14833.91738279146</v>
       </c>
     </row>
     <row r="163" spans="1:3">
       <c r="A163" s="1">
-        <v>252.4</v>
+        <v>211.4</v>
       </c>
       <c r="B163">
-        <v>6513.279786185596</v>
+        <v>13314.48278899004</v>
       </c>
       <c r="C163">
-        <v>7789.920387039949</v>
+        <v>15441.01751525981</v>
       </c>
     </row>
     <row r="164" spans="1:3">
       <c r="A164" s="1">
-        <v>253.4</v>
+        <v>212.4</v>
       </c>
       <c r="B164">
-        <v>7181.02637033586</v>
+        <v>13075.55678047269</v>
       </c>
       <c r="C164">
-        <v>7189.623608044412</v>
+        <v>14090.01766244687</v>
       </c>
     </row>
     <row r="165" spans="1:3">
       <c r="A165" s="1">
-        <v>254.4</v>
+        <v>213.1</v>
       </c>
       <c r="B165">
-        <v>6508.772954486125</v>
+        <v>13473.30857451053</v>
       </c>
       <c r="C165">
-        <v>8179.326829048876</v>
+        <v>14193.31776547782</v>
       </c>
     </row>
     <row r="166" spans="1:3">
       <c r="A166" s="1">
-        <v>255.4</v>
+        <v>214</v>
       </c>
       <c r="B166">
-        <v>6426.519538636388</v>
+        <v>12943.27516684492</v>
       </c>
       <c r="C166">
-        <v>9289.030050053354</v>
+        <v>15010.41789794617</v>
       </c>
     </row>
     <row r="167" spans="1:3">
       <c r="A167" s="1">
-        <v>256.3</v>
+        <v>215</v>
       </c>
       <c r="B167">
-        <v>6592.491464371627</v>
+        <v>12914.34915832756</v>
       </c>
       <c r="C167">
-        <v>7134.76294895737</v>
+        <v>14449.41804513322</v>
       </c>
     </row>
     <row r="168" spans="1:3">
       <c r="A168" s="1">
-        <v>257.3</v>
+        <v>215.9</v>
       </c>
       <c r="B168">
-        <v>6060.238048521895</v>
+        <v>12584.31575066194</v>
       </c>
       <c r="C168">
-        <v>9094.466169961834</v>
+        <v>14266.51817760157</v>
       </c>
     </row>
     <row r="169" spans="1:3">
       <c r="A169" s="1">
-        <v>257.9</v>
+        <v>216.9</v>
       </c>
       <c r="B169">
-        <v>6050.885999012049</v>
+        <v>11755.38974214459</v>
       </c>
       <c r="C169">
-        <v>7668.288102564512</v>
+        <v>14235.51832478864</v>
       </c>
     </row>
     <row r="170" spans="1:3">
       <c r="A170" s="1">
-        <v>258.9</v>
+        <v>217.9</v>
       </c>
       <c r="B170">
-        <v>5798.632583162316</v>
+        <v>13156.46373362724</v>
       </c>
       <c r="C170">
-        <v>6927.991323568976</v>
+        <v>14124.5184719757</v>
       </c>
     </row>
     <row r="171" spans="1:3">
       <c r="A171" s="1">
-        <v>259.9</v>
+        <v>218.9</v>
       </c>
       <c r="B171">
-        <v>6196.379167312578</v>
+        <v>12627.53772510988</v>
       </c>
       <c r="C171">
-        <v>6647.694544573453</v>
+        <v>14543.51861916275</v>
       </c>
     </row>
     <row r="172" spans="1:3">
       <c r="A172" s="1">
-        <v>260.9</v>
+        <v>219.9</v>
       </c>
       <c r="B172">
-        <v>5144.125751462845</v>
+        <v>12358.61171659253</v>
       </c>
       <c r="C172">
-        <v>7427.397765577916</v>
+        <v>12812.51876634981</v>
       </c>
     </row>
     <row r="173" spans="1:3">
       <c r="A173" s="1">
-        <v>261.8</v>
+        <v>220.8</v>
       </c>
       <c r="B173">
-        <v>4850.09767719808</v>
+        <v>12118.57830892691</v>
       </c>
       <c r="C173">
-        <v>6923.130664481933</v>
+        <v>13469.61889881816</v>
       </c>
     </row>
     <row r="174" spans="1:3">
       <c r="A174" s="1">
-        <v>262.8</v>
+        <v>221.5</v>
       </c>
       <c r="B174">
-        <v>5037.844261348348</v>
+        <v>12006.33010296476</v>
       </c>
       <c r="C174">
-        <v>8252.833885486398</v>
+        <v>13882.91900184911</v>
       </c>
     </row>
     <row r="175" spans="1:3">
       <c r="A175" s="1">
-        <v>263.8</v>
+        <v>222.5</v>
       </c>
       <c r="B175">
-        <v>5505.590845498613</v>
+        <v>11857.40409444741</v>
       </c>
       <c r="C175">
-        <v>7362.537106490875</v>
+        <v>11741.91914903616</v>
       </c>
     </row>
     <row r="176" spans="1:3">
       <c r="A176" s="1">
-        <v>264.8</v>
+        <v>223.5</v>
       </c>
       <c r="B176">
-        <v>5113.337429648875</v>
+        <v>11758.47808593006</v>
       </c>
       <c r="C176">
-        <v>6052.240327495338</v>
+        <v>13640.91929622322</v>
       </c>
     </row>
     <row r="177" spans="1:3">
       <c r="A177" s="1">
-        <v>265.8</v>
+        <v>224.4</v>
       </c>
       <c r="B177">
-        <v>4621.084013799142</v>
+        <v>11398.44467826443</v>
       </c>
       <c r="C177">
-        <v>7341.943548499801</v>
+        <v>12828.01942869157</v>
       </c>
     </row>
     <row r="178" spans="1:3">
       <c r="A178" s="1">
-        <v>266.4</v>
+        <v>225.4</v>
       </c>
       <c r="B178">
-        <v>4701.731964289298</v>
+        <v>11719.51866974708</v>
       </c>
       <c r="C178">
-        <v>6335.765481102479</v>
+        <v>11947.01957587862</v>
       </c>
     </row>
     <row r="179" spans="1:3">
       <c r="A179" s="1">
-        <v>267.4</v>
+        <v>226.4</v>
       </c>
       <c r="B179">
-        <v>4489.478548439563</v>
+        <v>11920.59266122972</v>
       </c>
       <c r="C179">
-        <v>6355.468702106958</v>
+        <v>12966.01972306568</v>
       </c>
     </row>
     <row r="180" spans="1:3">
       <c r="A180" s="1">
-        <v>268.4</v>
+        <v>227.4</v>
       </c>
       <c r="B180">
-        <v>4667.225132589827</v>
+        <v>11541.66665271237</v>
       </c>
       <c r="C180">
-        <v>6655.17192311142</v>
+        <v>12685.01987025273</v>
       </c>
     </row>
     <row r="181" spans="1:3">
       <c r="A181" s="1">
-        <v>269.4</v>
+        <v>228.4</v>
       </c>
       <c r="B181">
-        <v>4574.971716740092</v>
+        <v>11652.74064419502</v>
       </c>
       <c r="C181">
-        <v>6124.875144115884</v>
+        <v>11924.02001743979</v>
       </c>
     </row>
     <row r="182" spans="1:3">
       <c r="A182" s="1">
-        <v>270.3</v>
+        <v>229.3</v>
       </c>
       <c r="B182">
-        <v>4750.943642475331</v>
+        <v>11422.70723652939</v>
       </c>
       <c r="C182">
-        <v>5080.608043019901</v>
+        <v>15101.12014990814</v>
       </c>
     </row>
     <row r="183" spans="1:3">
       <c r="A183" s="1">
-        <v>271</v>
+        <v>230</v>
       </c>
       <c r="B183">
-        <v>4853.366251380514</v>
+        <v>11780.45903056725</v>
       </c>
       <c r="C183">
-        <v>5828.40029772304</v>
+        <v>13764.42025293909</v>
       </c>
     </row>
     <row r="184" spans="1:3">
       <c r="A184" s="1">
-        <v>272.3</v>
+        <v>231</v>
       </c>
       <c r="B184">
-        <v>3786.436810775861</v>
+        <v>11601.53302204989</v>
       </c>
       <c r="C184">
-        <v>6790.014485028843</v>
+        <v>13083.42040012614</v>
       </c>
     </row>
     <row r="185" spans="1:3">
       <c r="A185" s="1">
-        <v>273.2</v>
+        <v>231.9</v>
       </c>
       <c r="B185">
-        <v>4162.408736511097</v>
+        <v>11431.49961438428</v>
       </c>
       <c r="C185">
-        <v>6595.74738393286</v>
+        <v>12420.52053259449</v>
       </c>
     </row>
     <row r="186" spans="1:3">
       <c r="A186" s="1">
-        <v>273.9</v>
+        <v>232.9</v>
       </c>
       <c r="B186">
-        <v>4294.831345416284</v>
+        <v>10382.57360586692</v>
       </c>
       <c r="C186">
-        <v>4773.539638635983</v>
+        <v>12669.52067978155</v>
       </c>
     </row>
     <row r="187" spans="1:3">
       <c r="A187" s="1">
-        <v>274.9</v>
+        <v>233.9</v>
       </c>
       <c r="B187">
-        <v>3772.577929566546</v>
+        <v>11013.64759734957</v>
       </c>
       <c r="C187">
-        <v>5273.242859640462</v>
+        <v>11948.52082696862</v>
       </c>
     </row>
     <row r="188" spans="1:3">
       <c r="A188" s="1">
-        <v>275.8</v>
+        <v>234.9</v>
       </c>
       <c r="B188">
-        <v>3678.549855301785</v>
+        <v>11164.72158883221</v>
       </c>
       <c r="C188">
-        <v>6738.975758544479</v>
+        <v>11477.52097415566</v>
       </c>
     </row>
     <row r="189" spans="1:3">
       <c r="A189" s="1">
-        <v>276.8</v>
+        <v>235.5</v>
       </c>
       <c r="B189">
-        <v>3836.296439452051</v>
+        <v>10711.3659837218</v>
       </c>
       <c r="C189">
-        <v>6728.678979548942</v>
+        <v>11918.9210624679</v>
       </c>
     </row>
     <row r="190" spans="1:3">
       <c r="A190" s="1">
-        <v>277.8</v>
+        <v>236.8</v>
       </c>
       <c r="B190">
-        <v>4374.043023602313</v>
+        <v>10755.76217264924</v>
       </c>
       <c r="C190">
-        <v>7068.382200553405</v>
+        <v>12043.62125381108</v>
       </c>
     </row>
     <row r="191" spans="1:3">
       <c r="A191" s="1">
-        <v>278.4</v>
+        <v>237.8</v>
       </c>
       <c r="B191">
-        <v>3984.690974092473</v>
+        <v>10406.83616413189</v>
       </c>
       <c r="C191">
-        <v>7072.204133156098</v>
+        <v>12392.62140099813</v>
       </c>
     </row>
     <row r="192" spans="1:3">
       <c r="A192" s="1">
-        <v>279.7</v>
+        <v>238.4</v>
       </c>
       <c r="B192">
-        <v>3817.761533487816</v>
+        <v>10393.48055902147</v>
       </c>
       <c r="C192">
-        <v>5103.8183204619</v>
+        <v>11224.02148931036</v>
       </c>
     </row>
     <row r="193" spans="1:3">
       <c r="A193" s="1">
-        <v>280.7</v>
+        <v>239.4</v>
       </c>
       <c r="B193">
-        <v>3625.508117638081</v>
+        <v>10014.55455050412</v>
       </c>
       <c r="C193">
-        <v>5783.521541466363</v>
+        <v>10063.02163649742</v>
       </c>
     </row>
     <row r="194" spans="1:3">
       <c r="A194" s="1">
-        <v>281.4</v>
+        <v>240.4</v>
       </c>
       <c r="B194">
-        <v>3087.930726543264</v>
+        <v>9825.628541986764</v>
       </c>
       <c r="C194">
-        <v>5591.313796169488</v>
+        <v>11762.02178368447</v>
       </c>
     </row>
     <row r="195" spans="1:3">
       <c r="A195" s="1">
-        <v>282.3</v>
+        <v>241.4</v>
       </c>
       <c r="B195">
-        <v>3433.902652278504</v>
+        <v>9706.702533469408</v>
       </c>
       <c r="C195">
-        <v>6247.046695073504</v>
+        <v>12791.02193087154</v>
       </c>
     </row>
     <row r="196" spans="1:3">
       <c r="A196" s="1">
-        <v>283.3</v>
+        <v>242.4</v>
       </c>
       <c r="B196">
-        <v>3591.64923642877</v>
+        <v>9757.776524952053</v>
       </c>
       <c r="C196">
-        <v>5536.749916077983</v>
+        <v>10960.0220780586</v>
       </c>
     </row>
     <row r="197" spans="1:3">
       <c r="A197" s="1">
-        <v>284.3</v>
+        <v>243.3</v>
       </c>
       <c r="B197">
-        <v>3409.395820579033</v>
+        <v>9297.743117286436</v>
       </c>
       <c r="C197">
-        <v>6766.453137082446</v>
+        <v>11257.12221052695</v>
       </c>
     </row>
     <row r="198" spans="1:3">
       <c r="A198" s="1">
-        <v>285.3</v>
+        <v>244.3</v>
       </c>
       <c r="B198">
-        <v>3437.142404729295</v>
+        <v>9498.817108769081</v>
       </c>
       <c r="C198">
-        <v>5796.15635808691</v>
+        <v>11416.122357714</v>
       </c>
     </row>
     <row r="199" spans="1:3">
       <c r="A199" s="1">
-        <v>286.3</v>
+        <v>245.3</v>
       </c>
       <c r="B199">
-        <v>3334.888988879562</v>
+        <v>9259.891100251727</v>
       </c>
       <c r="C199">
-        <v>5315.859579091387</v>
+        <v>12965.12250490106</v>
       </c>
     </row>
     <row r="200" spans="1:3">
       <c r="A200" s="1">
-        <v>287.3</v>
+        <v>245.9</v>
       </c>
       <c r="B200">
-        <v>2982.635573029828</v>
+        <v>8856.535495141316</v>
       </c>
       <c r="C200">
-        <v>6545.56280009585</v>
+        <v>10256.5225932133</v>
       </c>
     </row>
     <row r="201" spans="1:3">
       <c r="A201" s="1">
-        <v>288.3</v>
+        <v>246.9</v>
       </c>
       <c r="B201">
-        <v>3180.38215718009</v>
+        <v>9067.609486623962</v>
       </c>
       <c r="C201">
-        <v>5015.266021100314</v>
+        <v>12525.52274040036</v>
       </c>
     </row>
     <row r="202" spans="1:3">
       <c r="A202" s="1">
-        <v>289</v>
+        <v>247.9</v>
       </c>
       <c r="B202">
-        <v>2992.804766085276</v>
+        <v>9178.683478106606</v>
       </c>
       <c r="C202">
-        <v>5883.058275803438</v>
+        <v>10524.52288758741</v>
       </c>
     </row>
     <row r="203" spans="1:3">
       <c r="A203" s="1">
-        <v>289.9</v>
+        <v>248.8</v>
       </c>
       <c r="B203">
-        <v>2988.776691820512</v>
+        <v>8038.650070440986</v>
       </c>
       <c r="C203">
-        <v>5008.79117470747</v>
+        <v>10701.62302005576</v>
       </c>
     </row>
     <row r="204" spans="1:3">
       <c r="A204" s="1">
-        <v>290.9</v>
+        <v>249.8</v>
       </c>
       <c r="B204">
-        <v>3496.523275970778</v>
+        <v>8649.724061923631</v>
       </c>
       <c r="C204">
-        <v>5098.494395711933</v>
+        <v>10050.62316724282</v>
       </c>
     </row>
     <row r="205" spans="1:3">
       <c r="A205" s="1">
-        <v>291.9</v>
+        <v>250.8</v>
       </c>
       <c r="B205">
-        <v>2934.269860121041</v>
+        <v>7910.798053406281</v>
       </c>
       <c r="C205">
-        <v>5838.197616716397</v>
+        <v>11679.62331442988</v>
       </c>
     </row>
     <row r="206" spans="1:3">
       <c r="A206" s="1">
-        <v>292.9</v>
+        <v>251.4</v>
       </c>
       <c r="B206">
-        <v>2512.016444271307</v>
+        <v>7927.442448295866</v>
       </c>
       <c r="C206">
-        <v>4857.900837720875</v>
+        <v>10301.02340274212</v>
       </c>
     </row>
     <row r="207" spans="1:3">
       <c r="A207" s="1">
-        <v>293.9</v>
+        <v>252.4</v>
       </c>
       <c r="B207">
-        <v>2619.763028421569</v>
+        <v>7508.516439778512</v>
       </c>
       <c r="C207">
-        <v>3637.604058725338</v>
+        <v>10270.02354992917</v>
       </c>
     </row>
     <row r="208" spans="1:3">
       <c r="A208" s="1">
-        <v>294.8</v>
+        <v>253.4</v>
       </c>
       <c r="B208">
-        <v>2605.734954156809</v>
+        <v>8169.590431261156</v>
       </c>
       <c r="C208">
-        <v>4973.336957629354</v>
+        <v>9649.02369711623</v>
       </c>
     </row>
     <row r="209" spans="1:3">
       <c r="A209" s="1">
-        <v>295.8</v>
+        <v>254.4</v>
       </c>
       <c r="B209">
-        <v>2383.481538307075</v>
+        <v>7490.664422743801</v>
       </c>
       <c r="C209">
-        <v>5333.040178633818</v>
+        <v>10618.02384430328</v>
       </c>
     </row>
     <row r="210" spans="1:3">
       <c r="A210" s="1">
-        <v>296.5</v>
+        <v>255.4</v>
       </c>
       <c r="B210">
-        <v>2315.904147212258</v>
+        <v>7401.738414226451</v>
       </c>
       <c r="C210">
-        <v>4790.832433336942</v>
+        <v>11707.02399149034</v>
       </c>
     </row>
     <row r="211" spans="1:3">
       <c r="A211" s="1">
-        <v>297.4</v>
+        <v>256.3</v>
       </c>
       <c r="B211">
-        <v>2701.876072947498</v>
+        <v>7561.705006560829</v>
       </c>
       <c r="C211">
-        <v>4086.565332240974</v>
+        <v>9534.124123958693</v>
       </c>
     </row>
     <row r="212" spans="1:3">
       <c r="A212" s="1">
-        <v>298.4</v>
+        <v>257.3</v>
       </c>
       <c r="B212">
-        <v>2289.62265709776</v>
+        <v>7022.778998043475</v>
       </c>
       <c r="C212">
-        <v>4656.268553245437</v>
+        <v>11473.12427114574</v>
       </c>
     </row>
     <row r="213" spans="1:3">
       <c r="A213" s="1">
-        <v>299.4</v>
+        <v>257.9</v>
       </c>
       <c r="B213">
-        <v>2247.369241248026</v>
+        <v>7009.423392933062</v>
       </c>
       <c r="C213">
-        <v>4145.971774249901</v>
+        <v>10034.52435945799</v>
       </c>
     </row>
     <row r="214" spans="1:3">
       <c r="A214" s="1">
-        <v>300.3</v>
+        <v>258.9</v>
       </c>
       <c r="B214">
-        <v>2353.341166983265</v>
+        <v>6750.497384415707</v>
       </c>
       <c r="C214">
-        <v>3871.704673153918</v>
+        <v>9273.524506645039</v>
       </c>
     </row>
     <row r="215" spans="1:3">
       <c r="A215" s="1">
-        <v>301.3</v>
+        <v>259.9</v>
       </c>
       <c r="B215">
-        <v>2771.087751133528</v>
+        <v>7141.571375898355</v>
       </c>
       <c r="C215">
-        <v>4511.407894158396</v>
+        <v>8972.524653832101</v>
       </c>
     </row>
     <row r="216" spans="1:3">
       <c r="A216" s="1">
-        <v>302</v>
+        <v>260.9</v>
       </c>
       <c r="B216">
-        <v>2713.510360038714</v>
+        <v>6082.645367381001</v>
       </c>
       <c r="C216">
-        <v>5499.20014886152</v>
+        <v>9731.52480101915</v>
       </c>
     </row>
     <row r="217" spans="1:3">
       <c r="A217" s="1">
-        <v>302.9</v>
+        <v>261.8</v>
       </c>
       <c r="B217">
-        <v>2839.48228577395</v>
+        <v>5782.611959715379</v>
       </c>
       <c r="C217">
-        <v>4804.933047765537</v>
+        <v>9208.624933487501</v>
       </c>
     </row>
     <row r="218" spans="1:3">
       <c r="A218" s="1">
-        <v>303.9</v>
+        <v>262.8</v>
       </c>
       <c r="B218">
-        <v>2137.228869924216</v>
+        <v>5963.685951198026</v>
       </c>
       <c r="C218">
-        <v>3494.63626877</v>
+        <v>10517.62508067456</v>
       </c>
     </row>
     <row r="219" spans="1:3">
       <c r="A219" s="1">
-        <v>304.9</v>
+        <v>263.8</v>
       </c>
       <c r="B219">
-        <v>1684.975454074479</v>
+        <v>6424.759942680674</v>
       </c>
       <c r="C219">
-        <v>3124.339489774478</v>
+        <v>9606.625227861627</v>
       </c>
     </row>
     <row r="220" spans="1:3">
       <c r="A220" s="1">
-        <v>305.9</v>
+        <v>264.8</v>
       </c>
       <c r="B220">
-        <v>2612.722038224745</v>
+        <v>6025.833934163318</v>
       </c>
       <c r="C220">
-        <v>5804.042710778942</v>
+        <v>8275.625375048676</v>
       </c>
     </row>
     <row r="221" spans="1:3">
       <c r="A221" s="1">
-        <v>306.9</v>
+        <v>265.8</v>
       </c>
       <c r="B221">
-        <v>2600.468622375007</v>
+        <v>5526.907925645964</v>
       </c>
       <c r="C221">
-        <v>5193.745931783405</v>
+        <v>9544.625522235738</v>
       </c>
     </row>
     <row r="222" spans="1:3">
       <c r="A222" s="1">
-        <v>307.8</v>
+        <v>266.4</v>
       </c>
       <c r="B222">
-        <v>2176.440548110247</v>
+        <v>5603.552320535549</v>
       </c>
       <c r="C222">
-        <v>3029.478830687422</v>
+        <v>8526.025610547973</v>
       </c>
     </row>
     <row r="223" spans="1:3">
       <c r="A223" s="1">
-        <v>308.8</v>
+        <v>267.4</v>
       </c>
       <c r="B223">
-        <v>2254.187132260513</v>
+        <v>5384.626312018196</v>
       </c>
       <c r="C223">
-        <v>5439.1820516919</v>
+        <v>8525.025757735037</v>
       </c>
     </row>
     <row r="224" spans="1:3">
       <c r="A224" s="1">
-        <v>309.8</v>
+        <v>268.4</v>
       </c>
       <c r="B224">
-        <v>2301.933716410776</v>
+        <v>5555.70030350084</v>
       </c>
       <c r="C224">
-        <v>3358.885272696363</v>
+        <v>8804.025904922084</v>
       </c>
     </row>
     <row r="225" spans="1:3">
       <c r="A225" s="1">
-        <v>310.4</v>
+        <v>269.4</v>
       </c>
       <c r="B225">
-        <v>2412.581666900935</v>
+        <v>5456.774294983488</v>
       </c>
       <c r="C225">
-        <v>6212.707205299041</v>
+        <v>8253.026052109146</v>
       </c>
     </row>
     <row r="226" spans="1:3">
       <c r="A226" s="1">
-        <v>311.4</v>
+        <v>270.3</v>
       </c>
       <c r="B226">
-        <v>2060.328251051198</v>
+        <v>5626.740887317868</v>
       </c>
       <c r="C226">
-        <v>3212.410426303504</v>
+        <v>7190.1261845775</v>
       </c>
     </row>
     <row r="227" spans="1:3">
       <c r="A227" s="1">
-        <v>312.4</v>
+        <v>271</v>
       </c>
       <c r="B227">
-        <v>2828.074835201464</v>
+        <v>5724.492681355721</v>
       </c>
       <c r="C227">
-        <v>3592.113647307968</v>
+        <v>7923.426287608445</v>
       </c>
     </row>
     <row r="228" spans="1:3">
       <c r="A228" s="1">
-        <v>313.4</v>
+        <v>272.3</v>
       </c>
       <c r="B228">
-        <v>2255.821419351726</v>
+        <v>4648.888870283159</v>
       </c>
       <c r="C228">
-        <v>5861.816868312446</v>
+        <v>8858.12647895161</v>
       </c>
     </row>
     <row r="229" spans="1:3">
       <c r="A229" s="1">
-        <v>314.4</v>
+        <v>273.2</v>
       </c>
       <c r="B229">
-        <v>2443.568003501993</v>
+        <v>5018.855462617541</v>
       </c>
       <c r="C229">
-        <v>3901.520089316909</v>
+        <v>8645.226611419961</v>
       </c>
     </row>
     <row r="230" spans="1:3">
       <c r="A230" s="1">
-        <v>315.3</v>
+        <v>273.9</v>
       </c>
       <c r="B230">
-        <v>2519.539929237233</v>
+        <v>5146.607256655394</v>
       </c>
       <c r="C230">
-        <v>2967.252988220926</v>
+        <v>6808.526714450908</v>
       </c>
     </row>
     <row r="231" spans="1:3">
       <c r="A231" s="1">
-        <v>316.3</v>
+        <v>274.9</v>
       </c>
       <c r="B231">
-        <v>2397.286513387495</v>
+        <v>4617.681248138038</v>
       </c>
       <c r="C231">
-        <v>3896.956209225404</v>
+        <v>7287.526861637956</v>
       </c>
     </row>
     <row r="232" spans="1:3">
       <c r="A232" s="1">
-        <v>317.3</v>
+        <v>275.8</v>
       </c>
       <c r="B232">
-        <v>2395.033097537761</v>
+        <v>4517.647840472422</v>
       </c>
       <c r="C232">
-        <v>3046.659430229867</v>
+        <v>8734.626994106307</v>
       </c>
     </row>
     <row r="233" spans="1:3">
       <c r="A233" s="1">
-        <v>317.9</v>
+        <v>276.8</v>
       </c>
       <c r="B233">
-        <v>2035.681048027917</v>
+        <v>4668.721831955067</v>
       </c>
       <c r="C233">
-        <v>1970.481362832546</v>
+        <v>8703.627141293369</v>
       </c>
     </row>
     <row r="234" spans="1:3">
       <c r="A234" s="1">
-        <v>318.9</v>
+        <v>277.8</v>
       </c>
       <c r="B234">
-        <v>2133.427632178183</v>
+        <v>5199.795823437713</v>
       </c>
       <c r="C234">
-        <v>2620.184583837009</v>
+        <v>9022.627288480418</v>
       </c>
     </row>
     <row r="235" spans="1:3">
       <c r="A235" s="1">
-        <v>319.9</v>
+        <v>278.4</v>
       </c>
       <c r="B235">
-        <v>2311.174216328446</v>
+        <v>4806.440218327298</v>
       </c>
       <c r="C235">
-        <v>1999.887804841472</v>
+        <v>9014.027376792654</v>
       </c>
     </row>
     <row r="236" spans="1:3">
       <c r="A236" s="1">
-        <v>320.9</v>
+        <v>279.7</v>
       </c>
       <c r="B236">
-        <v>2598.920800478712</v>
+        <v>4630.836407254737</v>
       </c>
       <c r="C236">
-        <v>2749.59102584595</v>
+        <v>7018.727568135834</v>
       </c>
     </row>
     <row r="237" spans="1:3">
       <c r="A237" s="1">
-        <v>321.8</v>
+        <v>280.7</v>
       </c>
       <c r="B237">
-        <v>1834.892726213948</v>
+        <v>4431.910398737382</v>
       </c>
       <c r="C237">
-        <v>2175.323924749967</v>
+        <v>7677.727715322897</v>
       </c>
     </row>
     <row r="238" spans="1:3">
       <c r="A238" s="1">
-        <v>322.8</v>
+        <v>281.4</v>
       </c>
       <c r="B238">
-        <v>1842.639310364214</v>
+        <v>3889.662192775234</v>
       </c>
       <c r="C238">
-        <v>1875.02714575443</v>
+        <v>7471.027818353828</v>
       </c>
     </row>
     <row r="239" spans="1:3">
       <c r="A239" s="1">
-        <v>323.8</v>
+        <v>282.3</v>
       </c>
       <c r="B239">
-        <v>1720.38589451448</v>
+        <v>4229.628785109617</v>
       </c>
       <c r="C239">
-        <v>2274.730366758908</v>
+        <v>8108.12795082218</v>
       </c>
     </row>
     <row r="240" spans="1:3">
       <c r="A240" s="1">
-        <v>324.8</v>
+        <v>283.3</v>
       </c>
       <c r="B240">
-        <v>2228.132478664742</v>
+        <v>4380.702776592261</v>
       </c>
       <c r="C240">
-        <v>2864.433587763371</v>
+        <v>7377.128098009242</v>
       </c>
     </row>
     <row r="241" spans="1:3">
       <c r="A241" s="1">
-        <v>325.7</v>
+        <v>284.3</v>
       </c>
       <c r="B241">
-        <v>2514.104404399982</v>
+        <v>4191.776768074908</v>
       </c>
       <c r="C241">
-        <v>2970.166486667388</v>
+        <v>8586.128245196305</v>
       </c>
     </row>
     <row r="242" spans="1:3">
       <c r="A242" s="1">
-        <v>326.7</v>
+        <v>285.3</v>
       </c>
       <c r="B242">
-        <v>2171.850988550244</v>
+        <v>4212.850759557556</v>
       </c>
       <c r="C242">
-        <v>4189.869707671852</v>
+        <v>7595.128392383353</v>
       </c>
     </row>
     <row r="243" spans="1:3">
       <c r="A243" s="1">
-        <v>327.7</v>
+        <v>286.3</v>
       </c>
       <c r="B243">
-        <v>2469.597572700511</v>
+        <v>4103.9247510402</v>
       </c>
       <c r="C243">
-        <v>4719.572928676314</v>
+        <v>7094.128539570415</v>
       </c>
     </row>
     <row r="244" spans="1:3">
       <c r="A244" s="1">
-        <v>328.4</v>
+        <v>287.3</v>
       </c>
       <c r="B244">
-        <v>1942.020181605697</v>
+        <v>3744.998742522846</v>
       </c>
       <c r="C244">
-        <v>3907.365183379454</v>
+        <v>8303.128686757464</v>
       </c>
     </row>
     <row r="245" spans="1:3">
       <c r="A245" s="1">
-        <v>329.3</v>
+        <v>288.3</v>
       </c>
       <c r="B245">
-        <v>2017.992107340933</v>
+        <v>3936.072734005491</v>
       </c>
       <c r="C245">
-        <v>3063.098082283471</v>
+        <v>6752.128833944526</v>
       </c>
     </row>
     <row r="246" spans="1:3">
       <c r="A246" s="1">
-        <v>330.3</v>
+        <v>289</v>
       </c>
       <c r="B246">
-        <v>2025.738691491199</v>
+        <v>3743.824528043343</v>
       </c>
       <c r="C246">
-        <v>3112.801303287934</v>
+        <v>7605.428936975458</v>
       </c>
     </row>
     <row r="247" spans="1:3">
       <c r="A247" s="1">
-        <v>331.3</v>
+        <v>289.9</v>
       </c>
       <c r="B247">
-        <v>2043.485275641462</v>
+        <v>3733.791120377723</v>
       </c>
       <c r="C247">
-        <v>2772.504524292412</v>
+        <v>6712.529069443825</v>
       </c>
     </row>
     <row r="248" spans="1:3">
       <c r="A248" s="1">
-        <v>332.3</v>
+        <v>290.9</v>
       </c>
       <c r="B248">
-        <v>2381.231859791728</v>
+        <v>4234.865111860368</v>
       </c>
       <c r="C248">
-        <v>2112.207745296875</v>
+        <v>6781.529216630873</v>
       </c>
     </row>
     <row r="249" spans="1:3">
       <c r="A249" s="1">
-        <v>333</v>
+        <v>291.9</v>
       </c>
       <c r="B249">
-        <v>2033.65446869691</v>
+        <v>3665.939103343012</v>
       </c>
       <c r="C249">
-        <v>0</v>
+        <v>7500.529363817936</v>
       </c>
     </row>
     <row r="250" spans="1:3">
       <c r="A250" s="1">
-        <v>334.3</v>
+        <v>292.9</v>
       </c>
       <c r="B250">
-        <v>1596.725028092257</v>
+        <v>3237.013094825661</v>
       </c>
       <c r="C250">
-        <v>2251.614187305802</v>
+        <v>6499.529511004984</v>
       </c>
     </row>
     <row r="251" spans="1:3">
       <c r="A251" s="1">
-        <v>335.2</v>
+        <v>293.9</v>
       </c>
       <c r="B251">
-        <v>1932.696953827492</v>
+        <v>3338.087086308306</v>
       </c>
       <c r="C251">
-        <v>1617.347086209819</v>
+        <v>5258.529658192047</v>
       </c>
     </row>
     <row r="252" spans="1:3">
       <c r="A252" s="1">
-        <v>335.9</v>
+        <v>294.8</v>
       </c>
       <c r="B252">
-        <v>1755.119562732678</v>
+        <v>3318.053678642686</v>
       </c>
       <c r="C252">
-        <v>2715.139340912958</v>
+        <v>6575.629790660399</v>
       </c>
     </row>
     <row r="253" spans="1:3">
       <c r="A253" s="1">
-        <v>336.9</v>
+        <v>295.8</v>
       </c>
       <c r="B253">
-        <v>2172.866146882941</v>
+        <v>3089.127670125335</v>
       </c>
       <c r="C253">
-        <v>534.8425619174213</v>
+        <v>6914.629937847461</v>
       </c>
     </row>
     <row r="254" spans="1:3">
       <c r="A254" s="1">
-        <v>337.8</v>
+        <v>296.5</v>
       </c>
       <c r="B254">
-        <v>1828.838072618181</v>
+        <v>3016.879464163187</v>
       </c>
       <c r="C254">
-        <v>3510.575460821438</v>
+        <v>6357.930040878392</v>
       </c>
     </row>
     <row r="255" spans="1:3">
       <c r="A255" s="1">
-        <v>338.8</v>
+        <v>297.4</v>
       </c>
       <c r="B255">
-        <v>1896.584656768447</v>
+        <v>3396.846056497566</v>
       </c>
       <c r="C255">
-        <v>2760.278681825916</v>
+        <v>5635.030173346745</v>
       </c>
     </row>
     <row r="256" spans="1:3">
       <c r="A256" s="1">
-        <v>339.8</v>
+        <v>298.4</v>
       </c>
       <c r="B256">
-        <v>1714.331240918709</v>
+        <v>2977.920047980211</v>
       </c>
       <c r="C256">
-        <v>3319.98190283038</v>
+        <v>6184.030320533807</v>
       </c>
     </row>
     <row r="257" spans="1:3">
       <c r="A257" s="1">
-        <v>340.8</v>
+        <v>299.4</v>
       </c>
       <c r="B257">
-        <v>1952.077825068975</v>
+        <v>2928.994039462856</v>
       </c>
       <c r="C257">
-        <v>1149.685123834843</v>
+        <v>5653.030467720871</v>
       </c>
     </row>
     <row r="258" spans="1:3">
       <c r="A258" s="1">
-        <v>341.7</v>
+        <v>300.3</v>
       </c>
       <c r="B258">
-        <v>1988.049750804211</v>
+        <v>3028.960631797239</v>
       </c>
       <c r="C258">
-        <v>715.4180227388597</v>
+        <v>5360.130600189222</v>
       </c>
     </row>
     <row r="259" spans="1:3">
       <c r="A259" s="1">
-        <v>342.4</v>
+        <v>301.3</v>
       </c>
       <c r="B259">
-        <v>1660.472359709398</v>
+        <v>3440.034623279884</v>
       </c>
       <c r="C259">
-        <v>1173.210277441985</v>
+        <v>5979.13074737627</v>
       </c>
     </row>
     <row r="260" spans="1:3">
       <c r="A260" s="1">
-        <v>343.4</v>
+        <v>302</v>
       </c>
       <c r="B260">
-        <v>1498.21894385966</v>
+        <v>3377.786417317736</v>
       </c>
       <c r="C260">
-        <v>3132.913498446462</v>
+        <v>6952.430850407215</v>
       </c>
     </row>
     <row r="261" spans="1:3">
       <c r="A261" s="1">
-        <v>344.4</v>
+        <v>302.9</v>
       </c>
       <c r="B261">
-        <v>1955.965528009926</v>
+        <v>3497.753009652116</v>
       </c>
       <c r="C261">
-        <v>1772.616719450925</v>
+        <v>6239.530982875568</v>
       </c>
     </row>
     <row r="262" spans="1:3">
       <c r="A262" s="1">
-        <v>345.3</v>
+        <v>303.9</v>
       </c>
       <c r="B262">
-        <v>2331.937453745166</v>
+        <v>2788.827001134761</v>
       </c>
       <c r="C262">
-        <v>1628.349618354942</v>
+        <v>4908.53113006263</v>
       </c>
     </row>
     <row r="263" spans="1:3">
       <c r="A263" s="1">
-        <v>346.3</v>
+        <v>304.9</v>
       </c>
       <c r="B263">
-        <v>2379.684037895428</v>
+        <v>2329.90099261741</v>
       </c>
       <c r="C263">
-        <v>938.0528393594204</v>
+        <v>4517.531277249678</v>
       </c>
     </row>
     <row r="264" spans="1:3">
       <c r="A264" s="1">
-        <v>347.3</v>
+        <v>305.9</v>
       </c>
       <c r="B264">
-        <v>2357.430622045694</v>
+        <v>3250.974984100055</v>
       </c>
       <c r="C264">
-        <v>1347.756060363884</v>
+        <v>7176.531424436741</v>
       </c>
     </row>
     <row r="265" spans="1:3">
       <c r="A265" s="1">
-        <v>348.3</v>
+        <v>306.9</v>
       </c>
       <c r="B265">
-        <v>2185.177206195957</v>
+        <v>3232.0489755827</v>
       </c>
       <c r="C265">
-        <v>717.4592813683466</v>
+        <v>6545.53157162379</v>
       </c>
     </row>
     <row r="266" spans="1:3">
       <c r="A266" s="1">
-        <v>348.9</v>
+        <v>307.8</v>
       </c>
       <c r="B266">
-        <v>1805.825156686117</v>
+        <v>2802.015567917079</v>
       </c>
       <c r="C266">
-        <v>1011.281213971025</v>
+        <v>4362.631704092141</v>
       </c>
     </row>
     <row r="267" spans="1:3">
       <c r="A267" s="1">
-        <v>350.2</v>
+        <v>308.8</v>
       </c>
       <c r="B267">
-        <v>1498.895716081459</v>
+        <v>2873.089559399728</v>
       </c>
       <c r="C267">
-        <v>2352.895401276827</v>
+        <v>6751.631851279204</v>
       </c>
     </row>
     <row r="268" spans="1:3">
       <c r="A268" s="1">
-        <v>351.2</v>
+        <v>309.8</v>
       </c>
       <c r="B268">
-        <v>1656.642300231725</v>
+        <v>2914.163550882373</v>
       </c>
       <c r="C268">
-        <v>2772.598622281305</v>
+        <v>4650.631998466252</v>
       </c>
     </row>
     <row r="269" spans="1:3">
       <c r="A269" s="1">
-        <v>351.9</v>
+        <v>310.4</v>
       </c>
       <c r="B269">
-        <v>2079.064909136911</v>
+        <v>3020.80794577196</v>
       </c>
       <c r="C269">
-        <v>4620.390876984429</v>
+        <v>7492.032086778488</v>
       </c>
     </row>
     <row r="270" spans="1:3">
       <c r="A270" s="1">
-        <v>352.8</v>
+        <v>311.4</v>
       </c>
       <c r="B270">
-        <v>2095.036834872147</v>
+        <v>2661.881937254605</v>
       </c>
       <c r="C270">
-        <v>3626.123775888446</v>
+        <v>4471.03223396555</v>
       </c>
     </row>
     <row r="271" spans="1:3">
       <c r="A271" s="1">
-        <v>353.8</v>
+        <v>312.4</v>
       </c>
       <c r="B271">
-        <v>2272.783419022413</v>
+        <v>3422.95592873725</v>
       </c>
       <c r="C271">
-        <v>1635.826996892924</v>
+        <v>4830.032381152613</v>
       </c>
     </row>
     <row r="272" spans="1:3">
       <c r="A272" s="1">
-        <v>354.8</v>
+        <v>313.4</v>
       </c>
       <c r="B272">
-        <v>2400.530003172676</v>
+        <v>2844.029920219895</v>
       </c>
       <c r="C272">
-        <v>2435.530217897388</v>
+        <v>7079.032528339661</v>
       </c>
     </row>
     <row r="273" spans="1:3">
       <c r="A273" s="1">
-        <v>355.8</v>
+        <v>314.4</v>
       </c>
       <c r="B273">
-        <v>1938.276587322942</v>
+        <v>3025.103911702543</v>
       </c>
       <c r="C273">
-        <v>3985.233438901851</v>
+        <v>5098.032675526724</v>
       </c>
     </row>
     <row r="274" spans="1:3">
       <c r="A274" s="1">
-        <v>356.7</v>
+        <v>315.3</v>
       </c>
       <c r="B274">
-        <v>2364.248513058178</v>
+        <v>3095.070504036923</v>
       </c>
       <c r="C274">
-        <v>3370.966337805868</v>
+        <v>4145.132807995075</v>
       </c>
     </row>
     <row r="275" spans="1:3">
       <c r="A275" s="1">
-        <v>357.7</v>
+        <v>316.3</v>
       </c>
       <c r="B275">
-        <v>2121.995097208444</v>
+        <v>2966.144495519568</v>
       </c>
       <c r="C275">
-        <v>1670.669558810331</v>
+        <v>5054.132955182139</v>
       </c>
     </row>
     <row r="276" spans="1:3">
       <c r="A276" s="1">
-        <v>358.7</v>
+        <v>317.3</v>
       </c>
       <c r="B276">
-        <v>2329.741681358707</v>
+        <v>2957.218487002213</v>
       </c>
       <c r="C276">
-        <v>3890.372779814809</v>
+        <v>4183.133102369186</v>
       </c>
     </row>
     <row r="277" spans="1:3">
       <c r="A277" s="1">
-        <v>359.3</v>
+        <v>317.9</v>
       </c>
       <c r="B277">
-        <v>2610.389631848866</v>
+        <v>2593.8628818918</v>
       </c>
       <c r="C277">
-        <v>2194.194712417488</v>
+        <v>3094.533190681421</v>
       </c>
     </row>
     <row r="278" spans="1:3">
       <c r="A278" s="1">
-        <v>360.3</v>
+        <v>318.9</v>
       </c>
       <c r="B278">
-        <v>1808.136215999133</v>
+        <v>2684.936873374448</v>
       </c>
       <c r="C278">
-        <v>1553.89793342195</v>
+        <v>3723.533337868484</v>
       </c>
     </row>
     <row r="279" spans="1:3">
       <c r="A279" s="1">
-        <v>361.3</v>
+        <v>319.9</v>
       </c>
       <c r="B279">
-        <v>1545.882800149395</v>
+        <v>2856.010864857094</v>
       </c>
       <c r="C279">
-        <v>803.6011544264284</v>
+        <v>3082.533485055547</v>
       </c>
     </row>
     <row r="280" spans="1:3">
       <c r="A280" s="1">
-        <v>362.3</v>
+        <v>320.9</v>
       </c>
       <c r="B280">
-        <v>1883.629384299662</v>
+        <v>3137.084856339739</v>
       </c>
       <c r="C280">
-        <v>3633.304375430892</v>
+        <v>3811.533632242595</v>
       </c>
     </row>
     <row r="281" spans="1:3">
       <c r="A281" s="1">
-        <v>363.3</v>
+        <v>321.8</v>
       </c>
       <c r="B281">
-        <v>1981.375968449924</v>
+        <v>2367.051448674118</v>
       </c>
       <c r="C281">
-        <v>2263.007596435355</v>
+        <v>3218.633764710947</v>
       </c>
     </row>
     <row r="282" spans="1:3">
       <c r="A282" s="1">
-        <v>364.2</v>
+        <v>322.8</v>
       </c>
       <c r="B282">
-        <v>1617.347894185163</v>
+        <v>2368.125440156767</v>
       </c>
       <c r="C282">
-        <v>2368.740495339373</v>
+        <v>2897.633911897995</v>
       </c>
     </row>
     <row r="283" spans="1:3">
       <c r="A283" s="1">
-        <v>365.2</v>
+        <v>323.8</v>
       </c>
       <c r="B283">
-        <v>2205.094478335426</v>
+        <v>2239.199431639412</v>
       </c>
       <c r="C283">
-        <v>2098.443716343836</v>
+        <v>3276.634059085058</v>
       </c>
     </row>
     <row r="284" spans="1:3">
       <c r="A284" s="1">
-        <v>365.9</v>
+        <v>324.8</v>
       </c>
       <c r="B284">
-        <v>2167.517087240612</v>
+        <v>2740.273423122057</v>
       </c>
       <c r="C284">
-        <v>986.2359710469746</v>
+        <v>3845.634206272121</v>
       </c>
     </row>
     <row r="285" spans="1:3">
       <c r="A285" s="1">
-        <v>366.9</v>
+        <v>325.7</v>
       </c>
       <c r="B285">
-        <v>2085.263671390875</v>
+        <v>3020.240015456436</v>
       </c>
       <c r="C285">
-        <v>2275.939192051438</v>
+        <v>3932.734338740473</v>
       </c>
     </row>
     <row r="286" spans="1:3">
       <c r="A286" s="1">
-        <v>367.8</v>
+        <v>326.7</v>
       </c>
       <c r="B286">
-        <v>1741.235597126114</v>
+        <v>2671.314006939085</v>
       </c>
       <c r="C286">
-        <v>3091.672090955455</v>
+        <v>5131.734485927521</v>
       </c>
     </row>
     <row r="287" spans="1:3">
       <c r="A287" s="1">
-        <v>368.8</v>
+        <v>327.7</v>
       </c>
       <c r="B287">
-        <v>2128.98218127638</v>
+        <v>2962.38799842173</v>
       </c>
       <c r="C287">
-        <v>3581.375311959933</v>
+        <v>5640.734633114585</v>
       </c>
     </row>
     <row r="288" spans="1:3">
       <c r="A288" s="1">
-        <v>369.8</v>
+        <v>328.4</v>
       </c>
       <c r="B288">
-        <v>2296.728765426643</v>
+        <v>2430.139792459582</v>
       </c>
       <c r="C288">
-        <v>5661.078532964396</v>
+        <v>4814.03473614553</v>
       </c>
     </row>
     <row r="289" spans="1:3">
       <c r="A289" s="1">
-        <v>370.5</v>
+        <v>329.3</v>
       </c>
       <c r="B289">
-        <v>2069.151374331829</v>
+        <v>2500.106384793961</v>
       </c>
       <c r="C289">
-        <v>4228.870787667521</v>
+        <v>3951.134868613881</v>
       </c>
     </row>
     <row r="290" spans="1:3">
       <c r="A290" s="1">
-        <v>371.7</v>
+        <v>330.3</v>
       </c>
       <c r="B290">
-        <v>2030.447275312145</v>
+        <v>2501.18037627661</v>
       </c>
       <c r="C290">
-        <v>3726.514652872876</v>
+        <v>3980.135015800929</v>
       </c>
     </row>
     <row r="291" spans="1:3">
       <c r="A291" s="1">
-        <v>372.4</v>
+        <v>331.3</v>
       </c>
       <c r="B291">
-        <v>1812.869884217331</v>
+        <v>2512.254367759252</v>
       </c>
       <c r="C291">
-        <v>4274.306907576001</v>
+        <v>3619.135162987992</v>
       </c>
     </row>
     <row r="292" spans="1:3">
       <c r="A292" s="1">
-        <v>373.4</v>
+        <v>332.3</v>
       </c>
       <c r="B292">
-        <v>1290.616468367594</v>
+        <v>2843.3283592419</v>
       </c>
       <c r="C292">
-        <v>3414.010128580479</v>
+        <v>2938.135310175055</v>
       </c>
     </row>
     <row r="293" spans="1:3">
       <c r="A293" s="1">
-        <v>374.3</v>
+        <v>333</v>
       </c>
       <c r="B293">
-        <v>1756.588394102833</v>
+        <v>2491.080153279752</v>
       </c>
       <c r="C293">
-        <v>3479.743027484496</v>
+        <v>811.4354132059858</v>
       </c>
     </row>
     <row r="294" spans="1:3">
       <c r="A294" s="1">
-        <v>375.4</v>
+        <v>334.3</v>
       </c>
       <c r="B294">
-        <v>1866.109636668126</v>
+        <v>2045.476342207191</v>
       </c>
       <c r="C294">
-        <v>4013.416570589406</v>
+        <v>3036.135604549166</v>
       </c>
     </row>
     <row r="295" spans="1:3">
       <c r="A295" s="1">
-        <v>376.3</v>
+        <v>335.2</v>
       </c>
       <c r="B295">
-        <v>2832.081562403362</v>
+        <v>2375.44293454157</v>
       </c>
       <c r="C295">
-        <v>5389.149469493423</v>
+        <v>2383.235737017518</v>
       </c>
     </row>
     <row r="296" spans="1:3">
       <c r="A296" s="1">
-        <v>377.3</v>
+        <v>335.9</v>
       </c>
       <c r="B296">
-        <v>1999.828146553628</v>
+        <v>2193.194728579422</v>
       </c>
       <c r="C296">
-        <v>6958.8526904979</v>
+        <v>3466.535840048463</v>
       </c>
     </row>
     <row r="297" spans="1:3">
       <c r="A297" s="1">
-        <v>378.3</v>
+        <v>336.9</v>
       </c>
       <c r="B297">
-        <v>1867.574730703891</v>
+        <v>2604.268720062067</v>
       </c>
       <c r="C297">
-        <v>5848.555911502363</v>
+        <v>1265.535987235512</v>
       </c>
     </row>
     <row r="298" spans="1:3">
       <c r="A298" s="1">
-        <v>378.9</v>
+        <v>337.8</v>
       </c>
       <c r="B298">
-        <v>2388.22268119405</v>
+        <v>2254.23531239645</v>
       </c>
       <c r="C298">
-        <v>6772.377844105042</v>
+        <v>4222.636119703864</v>
       </c>
     </row>
     <row r="299" spans="1:3">
       <c r="A299" s="1">
-        <v>379.9</v>
+        <v>338.8</v>
       </c>
       <c r="B299">
-        <v>2405.969265344313</v>
+        <v>2315.309303879095</v>
       </c>
       <c r="C299">
-        <v>6392.081065109505</v>
+        <v>3451.636266890912</v>
       </c>
     </row>
     <row r="300" spans="1:3">
       <c r="A300" s="1">
-        <v>380.9</v>
+        <v>339.8</v>
       </c>
       <c r="B300">
-        <v>1463.715849494579</v>
+        <v>2126.383295361744</v>
       </c>
       <c r="C300">
-        <v>5681.784286113983</v>
+        <v>3990.636414077975</v>
       </c>
     </row>
     <row r="301" spans="1:3">
       <c r="A301" s="1">
-        <v>381.9</v>
+        <v>340.8</v>
       </c>
       <c r="B301">
-        <v>2141.462433644845</v>
+        <v>2357.457286844385</v>
       </c>
       <c r="C301">
-        <v>7641.487507118446</v>
+        <v>1799.636561265037</v>
       </c>
     </row>
     <row r="302" spans="1:3">
       <c r="A302" s="1">
-        <v>382.8</v>
+        <v>341.7</v>
       </c>
       <c r="B302">
-        <v>1547.434359380081</v>
+        <v>2387.423879178768</v>
       </c>
       <c r="C302">
-        <v>8127.220406022463</v>
+        <v>1346.73669373339</v>
       </c>
     </row>
     <row r="303" spans="1:3">
       <c r="A303" s="1">
-        <v>383.8</v>
+        <v>342.4</v>
       </c>
       <c r="B303">
-        <v>2465.180943530347</v>
+        <v>2055.17567321662</v>
       </c>
       <c r="C303">
-        <v>10656.92362702693</v>
+        <v>1790.036796764321</v>
       </c>
     </row>
     <row r="304" spans="1:3">
       <c r="A304" s="1">
-        <v>384.8</v>
+        <v>343.4</v>
       </c>
       <c r="B304">
-        <v>1462.92752768061</v>
+        <v>1886.249664699266</v>
       </c>
       <c r="C304">
-        <v>11326.6268480314</v>
+        <v>3729.036943951383</v>
       </c>
     </row>
     <row r="305" spans="1:3">
       <c r="A305" s="1">
-        <v>385.8</v>
+        <v>344.4</v>
       </c>
       <c r="B305">
-        <v>2100.674111830876</v>
+        <v>2337.323656181911</v>
       </c>
       <c r="C305">
-        <v>9746.330069035868</v>
+        <v>2348.037091138446</v>
       </c>
     </row>
     <row r="306" spans="1:3">
       <c r="A306" s="1">
-        <v>386.4</v>
+        <v>345.3</v>
       </c>
       <c r="B306">
-        <v>2571.322062321031</v>
+        <v>2707.290248516294</v>
       </c>
       <c r="C306">
-        <v>11010.15200163855</v>
+        <v>2185.137223606798</v>
       </c>
     </row>
     <row r="307" spans="1:3">
       <c r="A307" s="1">
-        <v>387.4</v>
+        <v>346.3</v>
       </c>
       <c r="B307">
-        <v>1969.068646471298</v>
+        <v>2748.364239998939</v>
       </c>
       <c r="C307">
-        <v>10129.85522264301</v>
+        <v>1474.137370793846</v>
       </c>
     </row>
     <row r="308" spans="1:3">
       <c r="A308" s="1">
-        <v>388.4</v>
+        <v>347.3</v>
       </c>
       <c r="B308">
-        <v>2486.815230621564</v>
+        <v>2719.438231481584</v>
       </c>
       <c r="C308">
-        <v>12999.55844364749</v>
+        <v>1863.137517980909</v>
       </c>
     </row>
     <row r="309" spans="1:3">
       <c r="A309" s="1">
-        <v>389.4</v>
+        <v>348.3</v>
       </c>
       <c r="B309">
-        <v>2254.561814771826</v>
+        <v>2540.512222964229</v>
       </c>
       <c r="C309">
-        <v>11969.26166465195</v>
+        <v>1212.137665167972</v>
       </c>
     </row>
     <row r="310" spans="1:3">
       <c r="A310" s="1">
-        <v>390.3</v>
+        <v>348.9</v>
       </c>
       <c r="B310">
-        <v>1870.533740507066</v>
+        <v>2157.156617853816</v>
       </c>
       <c r="C310">
-        <v>13604.99456355597</v>
+        <v>1493.537753480206</v>
       </c>
     </row>
     <row r="311" spans="1:3">
       <c r="A311" s="1">
-        <v>391.3</v>
+        <v>350.2</v>
       </c>
       <c r="B311">
-        <v>1868.280324657329</v>
+        <v>1841.552806781257</v>
       </c>
       <c r="C311">
-        <v>16374.69778456043</v>
+        <v>2808.237944823372</v>
       </c>
     </row>
     <row r="312" spans="1:3">
       <c r="A312" s="1">
-        <v>392.3</v>
+        <v>351.2</v>
       </c>
       <c r="B312">
-        <v>2286.026908807595</v>
+        <v>1992.626798263902</v>
       </c>
       <c r="C312">
-        <v>18454.40100556491</v>
+        <v>3207.238092010435</v>
       </c>
     </row>
     <row r="313" spans="1:3">
       <c r="A313" s="1">
-        <v>392.9</v>
+        <v>351.9</v>
       </c>
       <c r="B313">
-        <v>2006.674859297751</v>
+        <v>2410.378592301754</v>
       </c>
       <c r="C313">
-        <v>20388.22293816759</v>
+        <v>5040.53819504138</v>
       </c>
     </row>
     <row r="314" spans="1:3">
       <c r="A314" s="1">
-        <v>394.2</v>
+        <v>352.8</v>
       </c>
       <c r="B314">
-        <v>2209.745418693097</v>
+        <v>2420.345184636134</v>
       </c>
       <c r="C314">
-        <v>21789.83712547339</v>
+        <v>4027.638327509717</v>
       </c>
     </row>
     <row r="315" spans="1:3">
       <c r="A315" s="1">
-        <v>394.9</v>
+        <v>353.8</v>
       </c>
       <c r="B315">
-        <v>2562.168027598283</v>
+        <v>2591.419176118783</v>
       </c>
       <c r="C315">
-        <v>23007.62938017651</v>
+        <v>2016.63847469678</v>
       </c>
     </row>
     <row r="316" spans="1:3">
       <c r="A316" s="1">
-        <v>395.9</v>
+        <v>354.8</v>
       </c>
       <c r="B316">
-        <v>2239.914611748546</v>
+        <v>2712.493167601428</v>
       </c>
       <c r="C316">
-        <v>25457.33260118099</v>
+        <v>2795.638621883828</v>
       </c>
     </row>
     <row r="317" spans="1:3">
       <c r="A317" s="1">
-        <v>396.8</v>
+        <v>355.8</v>
       </c>
       <c r="B317">
-        <v>2465.886537483785</v>
+        <v>2243.567159084073</v>
       </c>
       <c r="C317">
-        <v>26983.06550008501</v>
+        <v>4324.638769070892</v>
       </c>
     </row>
     <row r="318" spans="1:3">
       <c r="A318" s="1">
-        <v>397.8</v>
+        <v>356.7</v>
       </c>
       <c r="B318">
-        <v>1893.633121634048</v>
+        <v>2663.533751418452</v>
       </c>
       <c r="C318">
-        <v>30962.76872108947</v>
+        <v>3691.738901539244</v>
       </c>
     </row>
     <row r="319" spans="1:3">
       <c r="A319" s="1">
-        <v>398.1</v>
+        <v>357.7</v>
       </c>
       <c r="B319">
-        <v>2028.957096879128</v>
+        <v>2414.607742901101</v>
       </c>
       <c r="C319">
-        <v>32014.67968739081</v>
+        <v>1970.739048726306</v>
       </c>
     </row>
     <row r="320" spans="1:3">
       <c r="A320" s="1">
-        <v>399.7</v>
+        <v>358.7</v>
       </c>
       <c r="B320">
-        <v>2227.35163151955</v>
+        <v>2615.681734383742</v>
       </c>
       <c r="C320">
-        <v>34498.20484099797</v>
+        <v>4169.739195913355</v>
       </c>
     </row>
     <row r="321" spans="1:3">
       <c r="A321" s="1">
-        <v>400.7</v>
+        <v>359.3</v>
       </c>
       <c r="B321">
-        <v>2465.098215669816</v>
+        <v>2892.326129273332</v>
       </c>
       <c r="C321">
-        <v>38217.90806200243</v>
+        <v>2461.139284225589</v>
       </c>
     </row>
     <row r="322" spans="1:3">
       <c r="A322" s="1">
-        <v>401.4</v>
+        <v>360.3</v>
       </c>
       <c r="B322">
-        <v>2207.520824575002</v>
+        <v>2083.400120755977</v>
       </c>
       <c r="C322">
-        <v>40935.70031670555</v>
+        <v>1800.139431412652</v>
       </c>
     </row>
     <row r="323" spans="1:3">
       <c r="A323" s="1">
-        <v>402.4</v>
+        <v>361.3</v>
       </c>
       <c r="B323">
-        <v>2215.267408725265</v>
+        <v>1814.474112238622</v>
       </c>
       <c r="C323">
-        <v>44655.40353771002</v>
+        <v>1029.139578599715</v>
       </c>
     </row>
     <row r="324" spans="1:3">
       <c r="A324" s="1">
-        <v>403.3</v>
+        <v>362.3</v>
       </c>
       <c r="B324">
-        <v>1701.239334460504</v>
+        <v>2145.548103721268</v>
       </c>
       <c r="C324">
-        <v>47451.13643661403</v>
+        <v>3838.139725786763</v>
       </c>
     </row>
     <row r="325" spans="1:3">
       <c r="A325" s="1">
-        <v>404.3</v>
+        <v>363.3</v>
       </c>
       <c r="B325">
-        <v>1678.985918610766</v>
+        <v>2236.622095203916</v>
       </c>
       <c r="C325">
-        <v>50160.8396576185</v>
+        <v>2447.139872973826</v>
       </c>
     </row>
     <row r="326" spans="1:3">
       <c r="A326" s="1">
-        <v>405.3</v>
+        <v>364.2</v>
       </c>
       <c r="B326">
-        <v>2016.732502761033</v>
+        <v>1866.588687538296</v>
       </c>
       <c r="C326">
-        <v>53390.54287862299</v>
+        <v>2534.240005442178</v>
       </c>
     </row>
     <row r="327" spans="1:3">
       <c r="A327" s="1">
-        <v>406.3</v>
+        <v>365.2</v>
       </c>
       <c r="B327">
-        <v>1994.479086911295</v>
+        <v>2447.662679020941</v>
       </c>
       <c r="C327">
-        <v>58130.24609962745</v>
+        <v>2243.240152629241</v>
       </c>
     </row>
     <row r="328" spans="1:3">
       <c r="A328" s="1">
-        <v>407.2</v>
+        <v>365.9</v>
       </c>
       <c r="B328">
-        <v>1940.451012646535</v>
+        <v>2405.414473058793</v>
       </c>
       <c r="C328">
-        <v>63745.97899853147</v>
+        <v>1116.540255660172</v>
       </c>
     </row>
     <row r="329" spans="1:3">
       <c r="A329" s="1">
-        <v>408.2</v>
+        <v>366.9</v>
       </c>
       <c r="B329">
-        <v>2438.197596796797</v>
+        <v>2316.488464541438</v>
       </c>
       <c r="C329">
-        <v>66375.68221953593</v>
+        <v>2385.540402847234</v>
       </c>
     </row>
     <row r="330" spans="1:3">
       <c r="A330" s="1">
-        <v>408.8</v>
+        <v>367.8</v>
       </c>
       <c r="B330">
-        <v>2888.845547286957</v>
+        <v>1966.455056875821</v>
       </c>
       <c r="C330">
-        <v>74029.5041521386</v>
+        <v>3182.640535315571</v>
       </c>
     </row>
     <row r="331" spans="1:3">
       <c r="A331" s="1">
-        <v>409.8</v>
+        <v>368.8</v>
       </c>
       <c r="B331">
-        <v>2206.592131437223</v>
+        <v>2347.529048358466</v>
       </c>
       <c r="C331">
-        <v>78549.20737314307</v>
+        <v>3651.640682502634</v>
       </c>
     </row>
     <row r="332" spans="1:3">
       <c r="A332" s="1">
-        <v>410.8</v>
+        <v>369.8</v>
       </c>
       <c r="B332">
-        <v>2334.338715587486</v>
+        <v>2508.603039841111</v>
       </c>
       <c r="C332">
-        <v>84258.91059414753</v>
+        <v>5710.640829689698</v>
       </c>
     </row>
     <row r="333" spans="1:3">
       <c r="A333" s="1">
-        <v>411.8</v>
+        <v>370.5</v>
       </c>
       <c r="B333">
-        <v>2512.085299737752</v>
+        <v>2276.354833878963</v>
       </c>
       <c r="C333">
-        <v>94018.613815152</v>
+        <v>4263.940932720629</v>
       </c>
     </row>
     <row r="334" spans="1:3">
       <c r="A334" s="1">
-        <v>412.7</v>
+        <v>371.7</v>
       </c>
       <c r="B334">
-        <v>2228.057225472988</v>
+        <v>2229.643623658139</v>
       </c>
       <c r="C334">
-        <v>100744.346714056</v>
+        <v>3736.741109345097</v>
       </c>
     </row>
     <row r="335" spans="1:3">
       <c r="A335" s="1">
-        <v>413.7</v>
+        <v>372.4</v>
       </c>
       <c r="B335">
-        <v>2815.803809623254</v>
+        <v>2007.395417695988</v>
       </c>
       <c r="C335">
-        <v>108504.0499350605</v>
+        <v>4270.041212376043</v>
       </c>
     </row>
     <row r="336" spans="1:3">
       <c r="A336" s="1">
-        <v>414.7</v>
+        <v>373.4</v>
       </c>
       <c r="B336">
-        <v>2943.550393773517</v>
+        <v>1478.469409178636</v>
       </c>
       <c r="C336">
-        <v>120953.753156065</v>
+        <v>3389.041359563106</v>
       </c>
     </row>
     <row r="337" spans="1:3">
       <c r="A337" s="1">
-        <v>415.6</v>
+        <v>374.3</v>
       </c>
       <c r="B337">
-        <v>2899.522319508756</v>
+        <v>1938.436001513016</v>
       </c>
       <c r="C337">
-        <v>131859.486054969</v>
+        <v>3436.141492031458</v>
       </c>
     </row>
     <row r="338" spans="1:3">
       <c r="A338" s="1">
-        <v>416.3</v>
+        <v>375.4</v>
       </c>
       <c r="B338">
-        <v>3001.944928413942</v>
+        <v>2040.617392143927</v>
       </c>
       <c r="C338">
-        <v>144557.2783096721</v>
+        <v>3947.041653937217</v>
       </c>
     </row>
     <row r="339" spans="1:3">
       <c r="A339" s="1">
-        <v>417.3</v>
+        <v>376.3</v>
       </c>
       <c r="B339">
-        <v>3129.691512564205</v>
+        <v>3000.583984478306</v>
       </c>
       <c r="C339">
-        <v>165526.9815306765</v>
+        <v>5304.141786405568</v>
       </c>
     </row>
     <row r="340" spans="1:3">
       <c r="A340" s="1">
-        <v>418.2</v>
+        <v>377.3</v>
       </c>
       <c r="B340">
-        <v>3075.663438299444</v>
+        <v>2161.657975960955</v>
       </c>
       <c r="C340">
-        <v>184562.7144295806</v>
+        <v>6853.141933592632</v>
       </c>
     </row>
     <row r="341" spans="1:3">
       <c r="A341" s="1">
-        <v>419.2</v>
+        <v>378.3</v>
       </c>
       <c r="B341">
-        <v>2943.410022449707</v>
+        <v>2022.7319674436</v>
       </c>
       <c r="C341">
-        <v>214352.4176505851</v>
+        <v>5722.142080779679</v>
       </c>
     </row>
     <row r="342" spans="1:3">
       <c r="A342" s="1">
-        <v>420.2</v>
+        <v>378.9</v>
       </c>
       <c r="B342">
-        <v>3371.156606599973</v>
+        <v>2539.376362333186</v>
       </c>
       <c r="C342">
-        <v>254802.1208715895</v>
+        <v>6633.542169091915</v>
       </c>
     </row>
     <row r="343" spans="1:3">
       <c r="A343" s="1">
-        <v>421.2</v>
+        <v>379.9</v>
       </c>
       <c r="B343">
-        <v>3498.903190750235</v>
+        <v>2550.450353815831</v>
       </c>
       <c r="C343">
-        <v>308531.824092594</v>
+        <v>6232.542316278978</v>
       </c>
     </row>
     <row r="344" spans="1:3">
       <c r="A344" s="1">
-        <v>422.1</v>
+        <v>380.9</v>
       </c>
       <c r="B344">
-        <v>3074.875116485475</v>
+        <v>1601.524345298476</v>
       </c>
       <c r="C344">
-        <v>386527.556991498</v>
+        <v>5501.54246346604</v>
       </c>
     </row>
     <row r="345" spans="1:3">
       <c r="A345" s="1">
-        <v>423.1</v>
+        <v>381.9</v>
       </c>
       <c r="B345">
-        <v>3002.621700635738</v>
+        <v>2272.598336781121</v>
       </c>
       <c r="C345">
-        <v>509467.2602125025</v>
+        <v>7440.542610653089</v>
       </c>
     </row>
     <row r="346" spans="1:3">
       <c r="A346" s="1">
-        <v>423.8</v>
+        <v>382.8</v>
       </c>
       <c r="B346">
-        <v>3545.044309540924</v>
+        <v>1672.564929115505</v>
       </c>
       <c r="C346">
-        <v>747745.0524672057</v>
+        <v>7907.642743121441</v>
       </c>
     </row>
     <row r="347" spans="1:3">
       <c r="A347" s="1">
-        <v>424.7</v>
+        <v>383.8</v>
       </c>
       <c r="B347">
-        <v>4431.016235276164</v>
+        <v>2583.63892059815</v>
       </c>
       <c r="C347">
-        <v>1222700.78536611</v>
+        <v>10416.64289030849</v>
       </c>
     </row>
     <row r="348" spans="1:3">
       <c r="A348" s="1">
-        <v>425.7</v>
+        <v>384.8</v>
       </c>
       <c r="B348">
-        <v>4778.762819426425</v>
+        <v>1574.712912080798</v>
       </c>
       <c r="C348">
-        <v>1527660.488587114</v>
+        <v>11065.64303749555</v>
       </c>
     </row>
     <row r="349" spans="1:3">
       <c r="A349" s="1">
-        <v>426.7</v>
+        <v>385.8</v>
       </c>
       <c r="B349">
-        <v>5406.509403576692</v>
+        <v>2205.78690356344</v>
       </c>
       <c r="C349">
-        <v>1410270.191808119</v>
+        <v>9464.643184682613</v>
       </c>
     </row>
     <row r="350" spans="1:3">
       <c r="A350" s="1">
-        <v>427.6</v>
+        <v>386.4</v>
       </c>
       <c r="B350">
-        <v>5172.481329311931</v>
+        <v>2672.43129845303</v>
       </c>
       <c r="C350">
-        <v>1187325.924707023</v>
+        <v>10716.04327299485</v>
       </c>
     </row>
     <row r="351" spans="1:3">
       <c r="A351" s="1">
-        <v>428.6</v>
+        <v>387.4</v>
       </c>
       <c r="B351">
-        <v>4910.227913462193</v>
+        <v>2063.505289935675</v>
       </c>
       <c r="C351">
-        <v>886015.6279280271</v>
+        <v>9815.043420181912</v>
       </c>
     </row>
     <row r="352" spans="1:3">
       <c r="A352" s="1">
-        <v>429.6</v>
+        <v>388.4</v>
       </c>
       <c r="B352">
-        <v>4287.974497612457</v>
+        <v>2574.57928141832</v>
       </c>
       <c r="C352">
-        <v>682615.3311490315</v>
+        <v>12664.04356736896</v>
       </c>
     </row>
     <row r="353" spans="1:3">
       <c r="A353" s="1">
-        <v>430.5</v>
+        <v>389.4</v>
       </c>
       <c r="B353">
-        <v>3793.946423347696</v>
+        <v>2335.653272900965</v>
       </c>
       <c r="C353">
-        <v>477741.0640479355</v>
+        <v>11613.04371455602</v>
       </c>
     </row>
     <row r="354" spans="1:3">
       <c r="A354" s="1">
-        <v>431.5</v>
+        <v>390.3</v>
       </c>
       <c r="B354">
-        <v>3571.693007497962</v>
+        <v>1945.619865235348</v>
       </c>
       <c r="C354">
-        <v>347320.76726894</v>
+        <v>13230.14384702437</v>
       </c>
     </row>
     <row r="355" spans="1:3">
       <c r="A355" s="1">
-        <v>432.5</v>
+        <v>391.3</v>
       </c>
       <c r="B355">
-        <v>3639.439591648225</v>
+        <v>1936.693856717993</v>
       </c>
       <c r="C355">
-        <v>265010.4704899445</v>
+        <v>15979.14399421142</v>
       </c>
     </row>
     <row r="356" spans="1:3">
       <c r="A356" s="1">
-        <v>433.2</v>
+        <v>392.3</v>
       </c>
       <c r="B356">
-        <v>3561.862200553411</v>
+        <v>2347.767848200638</v>
       </c>
       <c r="C356">
-        <v>217998.2627446476</v>
+        <v>18038.14414139849</v>
       </c>
     </row>
     <row r="357" spans="1:3">
       <c r="A357" s="1">
-        <v>434.1</v>
+        <v>392.9</v>
       </c>
       <c r="B357">
-        <v>3227.834126288651</v>
+        <v>2064.412243090225</v>
       </c>
       <c r="C357">
-        <v>188273.9956435516</v>
+        <v>19959.54422971072</v>
       </c>
     </row>
     <row r="358" spans="1:3">
       <c r="A358" s="1">
-        <v>435.1</v>
+        <v>394.2</v>
       </c>
       <c r="B358">
-        <v>3295.580710438913</v>
+        <v>2258.808432017663</v>
       </c>
       <c r="C358">
-        <v>158423.698864556</v>
+        <v>21334.2444210539</v>
       </c>
     </row>
     <row r="359" spans="1:3">
       <c r="A359" s="1">
-        <v>436.1</v>
+        <v>394.9</v>
       </c>
       <c r="B359">
-        <v>2643.327294589176</v>
+        <v>2606.560226055518</v>
       </c>
       <c r="C359">
-        <v>147983.4020855606</v>
+        <v>22537.54452408483</v>
       </c>
     </row>
     <row r="360" spans="1:3">
       <c r="A360" s="1">
-        <v>437</v>
+        <v>395.9</v>
       </c>
       <c r="B360">
-        <v>3009.299220324415</v>
+        <v>2277.634217538164</v>
       </c>
       <c r="C360">
-        <v>137309.1349844646</v>
+        <v>24966.54467127189</v>
       </c>
     </row>
     <row r="361" spans="1:3">
       <c r="A361" s="1">
-        <v>438</v>
+        <v>396.8</v>
       </c>
       <c r="B361">
-        <v>3287.045804474678</v>
+        <v>2497.600809872543</v>
       </c>
       <c r="C361">
-        <v>130638.838205469</v>
+        <v>26473.64480374024</v>
       </c>
     </row>
     <row r="362" spans="1:3">
       <c r="A362" s="1">
-        <v>439</v>
+        <v>397.8</v>
       </c>
       <c r="B362">
-        <v>3484.792388624943</v>
+        <v>1918.674801355188</v>
       </c>
       <c r="C362">
-        <v>123058.5414264735</v>
+        <v>30432.64495092729</v>
       </c>
     </row>
     <row r="363" spans="1:3">
       <c r="A363" s="1">
-        <v>439.9</v>
+        <v>398.1</v>
       </c>
       <c r="B363">
-        <v>3580.764314360183</v>
+        <v>2051.996998799981</v>
       </c>
       <c r="C363">
-        <v>114794.2743253775</v>
+        <v>31478.34499508341</v>
       </c>
     </row>
     <row r="364" spans="1:3">
       <c r="A364" s="1">
-        <v>440.6</v>
+        <v>399.7</v>
       </c>
       <c r="B364">
-        <v>2953.18692326537</v>
+        <v>2239.715385172216</v>
       </c>
       <c r="C364">
-        <v>108322.0665800807</v>
+        <v>33928.74523058271</v>
       </c>
     </row>
     <row r="365" spans="1:3">
       <c r="A365" s="1">
-        <v>441.6</v>
+        <v>400.7</v>
       </c>
       <c r="B365">
-        <v>2650.933507415632</v>
+        <v>2470.789376654861</v>
       </c>
       <c r="C365">
-        <v>103491.7698010851</v>
+        <v>37627.74537776977</v>
       </c>
     </row>
     <row r="366" spans="1:3">
       <c r="A366" s="1">
-        <v>442.6</v>
+        <v>401.4</v>
       </c>
       <c r="B366">
-        <v>3328.680091565895</v>
+        <v>2208.541170692713</v>
       </c>
       <c r="C366">
-        <v>96761.47302208959</v>
+        <v>40331.04548080072</v>
       </c>
     </row>
     <row r="367" spans="1:3">
       <c r="A367" s="1">
-        <v>443.5</v>
+        <v>402.4</v>
       </c>
       <c r="B367">
-        <v>2694.652017301134</v>
+        <v>2209.615162175358</v>
       </c>
       <c r="C367">
-        <v>94177.20592099363</v>
+        <v>44030.04562798777</v>
       </c>
     </row>
     <row r="368" spans="1:3">
       <c r="A368" s="1">
-        <v>444.5</v>
+        <v>403.3</v>
       </c>
       <c r="B368">
-        <v>2342.398601451397</v>
+        <v>1689.581754509742</v>
       </c>
       <c r="C368">
-        <v>92986.9091419981</v>
+        <v>46807.14576045611</v>
       </c>
     </row>
     <row r="369" spans="1:3">
       <c r="A369" s="1">
-        <v>445.5</v>
+        <v>404.3</v>
       </c>
       <c r="B369">
-        <v>2990.145185601663</v>
+        <v>1660.655745992387</v>
       </c>
       <c r="C369">
-        <v>89866.61236300255</v>
+        <v>49496.14590764316</v>
       </c>
     </row>
     <row r="370" spans="1:3">
       <c r="A370" s="1">
-        <v>446.5</v>
+        <v>405.3</v>
       </c>
       <c r="B370">
-        <v>2797.891769751929</v>
+        <v>1991.729737475032</v>
       </c>
       <c r="C370">
-        <v>86506.31558400702</v>
+        <v>52705.14605483024</v>
       </c>
     </row>
     <row r="371" spans="1:3">
       <c r="A371" s="1">
-        <v>446.8</v>
+        <v>406.3</v>
       </c>
       <c r="B371">
-        <v>2563.215744997005</v>
+        <v>1962.803728957677</v>
       </c>
       <c r="C371">
-        <v>86038.22655030836</v>
+        <v>57424.14620201729</v>
       </c>
     </row>
     <row r="372" spans="1:3">
       <c r="A372" s="1">
-        <v>448.1</v>
+        <v>407.2</v>
       </c>
       <c r="B372">
-        <v>2956.286304392351</v>
+        <v>1902.77032129206</v>
       </c>
       <c r="C372">
-        <v>82989.84073761415</v>
+        <v>63021.24633448564</v>
       </c>
     </row>
     <row r="373" spans="1:3">
       <c r="A373" s="1">
-        <v>449</v>
+        <v>408.2</v>
       </c>
       <c r="B373">
-        <v>3122.258230127591</v>
+        <v>2393.844312774705</v>
       </c>
       <c r="C373">
-        <v>80025.57363651818</v>
+        <v>65630.2464816727</v>
       </c>
     </row>
     <row r="374" spans="1:3">
       <c r="A374" s="1">
-        <v>450</v>
+        <v>408.8</v>
       </c>
       <c r="B374">
-        <v>2820.004814277853</v>
+        <v>2840.488707664291</v>
       </c>
       <c r="C374">
-        <v>78245.27685752264</v>
+        <v>73271.64656998492</v>
       </c>
     </row>
     <row r="375" spans="1:3">
       <c r="A375" s="1">
-        <v>451</v>
+        <v>409.8</v>
       </c>
       <c r="B375">
-        <v>2477.751398428116</v>
+        <v>2151.562699146936</v>
       </c>
       <c r="C375">
-        <v>76644.98007852714</v>
+        <v>77770.64671717197</v>
       </c>
     </row>
     <row r="376" spans="1:3">
       <c r="A376" s="1">
-        <v>452</v>
+        <v>410.8</v>
       </c>
       <c r="B376">
-        <v>2605.497982578382</v>
+        <v>2272.636690629585</v>
       </c>
       <c r="C376">
-        <v>73244.68329953159</v>
+        <v>83459.64686435905</v>
       </c>
     </row>
     <row r="377" spans="1:3">
       <c r="A377" s="1">
-        <v>452.9</v>
+        <v>411.8</v>
       </c>
       <c r="B377">
-        <v>2671.469908313618</v>
+        <v>2443.710682112227</v>
       </c>
       <c r="C377">
-        <v>71020.41619843562</v>
+        <v>93198.6470115461</v>
       </c>
     </row>
     <row r="378" spans="1:3">
       <c r="A378" s="1">
-        <v>453.9</v>
+        <v>412.7</v>
       </c>
       <c r="B378">
-        <v>2839.216492463884</v>
+        <v>2153.67727444661</v>
       </c>
       <c r="C378">
-        <v>70310.11941944007</v>
+        <v>99905.74714401446</v>
       </c>
     </row>
     <row r="379" spans="1:3">
       <c r="A379" s="1">
-        <v>454.9</v>
+        <v>413.7</v>
       </c>
       <c r="B379">
-        <v>2686.96307661415</v>
+        <v>2734.751265929255</v>
       </c>
       <c r="C379">
-        <v>67459.82264044454</v>
+        <v>107644.7472912015</v>
       </c>
     </row>
     <row r="380" spans="1:3">
       <c r="A380" s="1">
-        <v>455.9</v>
+        <v>414.7</v>
       </c>
       <c r="B380">
-        <v>2124.709660764413</v>
+        <v>2855.8252574119</v>
       </c>
       <c r="C380">
-        <v>68849.525861449</v>
+        <v>120073.7474383886</v>
       </c>
     </row>
     <row r="381" spans="1:3">
       <c r="A381" s="1">
-        <v>456.5</v>
+        <v>415.6</v>
       </c>
       <c r="B381">
-        <v>2575.357611254572</v>
+        <v>2805.791849746283</v>
       </c>
       <c r="C381">
-        <v>64723.34779405169</v>
+        <v>130960.8475708569</v>
       </c>
     </row>
     <row r="382" spans="1:3">
       <c r="A382" s="1">
-        <v>457.5</v>
+        <v>416.3</v>
       </c>
       <c r="B382">
-        <v>2413.104195404835</v>
+        <v>2903.543643784135</v>
       </c>
       <c r="C382">
-        <v>63083.05101505615</v>
+        <v>143644.1476738879</v>
       </c>
     </row>
     <row r="383" spans="1:3">
       <c r="A383" s="1">
-        <v>458.5</v>
+        <v>417.3</v>
       </c>
       <c r="B383">
-        <v>2520.850779555101</v>
+        <v>3024.61763526678</v>
       </c>
       <c r="C383">
-        <v>63142.75423606062</v>
+        <v>164593.1478210749</v>
       </c>
     </row>
     <row r="384" spans="1:3">
       <c r="A384" s="1">
-        <v>459.5</v>
+        <v>418.2</v>
       </c>
       <c r="B384">
-        <v>2828.597363705367</v>
+        <v>2964.584227601159</v>
       </c>
       <c r="C384">
-        <v>61932.45745706511</v>
+        <v>183610.2479535433</v>
       </c>
     </row>
     <row r="385" spans="1:3">
       <c r="A385" s="1">
-        <v>460.5</v>
+        <v>419.2</v>
       </c>
       <c r="B385">
-        <v>2886.34394785563</v>
+        <v>2825.658219083808</v>
       </c>
       <c r="C385">
-        <v>58542.16067806957</v>
+        <v>213379.2481007303</v>
       </c>
     </row>
     <row r="386" spans="1:3">
       <c r="A386" s="1">
-        <v>461.1</v>
+        <v>420.2</v>
       </c>
       <c r="B386">
-        <v>2846.99189834579</v>
+        <v>3246.73221056645</v>
       </c>
       <c r="C386">
-        <v>59825.98261067225</v>
+        <v>253808.2482479174</v>
       </c>
     </row>
     <row r="387" spans="1:3">
       <c r="A387" s="1">
-        <v>462.4</v>
+        <v>421.2</v>
       </c>
       <c r="B387">
-        <v>2730.062457741132</v>
+        <v>3367.806202049098</v>
       </c>
       <c r="C387">
-        <v>57427.59679797805</v>
+        <v>307517.2483951045</v>
       </c>
     </row>
     <row r="388" spans="1:3">
       <c r="A388" s="1">
-        <v>463.4</v>
+        <v>422.1</v>
       </c>
       <c r="B388">
-        <v>2487.809041891398</v>
+        <v>2937.772794383478</v>
       </c>
       <c r="C388">
-        <v>57327.30001898251</v>
+        <v>385494.3485275728</v>
       </c>
     </row>
     <row r="389" spans="1:3">
       <c r="A389" s="1">
-        <v>464.3</v>
+        <v>423.1</v>
       </c>
       <c r="B389">
-        <v>2803.780967626637</v>
+        <v>2858.846785866127</v>
       </c>
       <c r="C389">
-        <v>58573.03291788653</v>
+        <v>508413.3486747599</v>
       </c>
     </row>
     <row r="390" spans="1:3">
       <c r="A390" s="1">
-        <v>465</v>
+        <v>423.8</v>
       </c>
       <c r="B390">
-        <v>2796.20357653182</v>
+        <v>3396.598579903975</v>
       </c>
       <c r="C390">
-        <v>56450.82517258966</v>
+        <v>746676.6487777907</v>
       </c>
     </row>
     <row r="391" spans="1:3">
       <c r="A391" s="1">
-        <v>466</v>
+        <v>424.7</v>
       </c>
       <c r="B391">
-        <v>2683.950160682086</v>
+        <v>4276.565172238358</v>
       </c>
       <c r="C391">
-        <v>55290.52839359415</v>
+        <v>1221613.748910259</v>
       </c>
     </row>
     <row r="392" spans="1:3">
       <c r="A392" s="1">
-        <v>466.9</v>
+        <v>425.7</v>
       </c>
       <c r="B392">
-        <v>2069.922086417322</v>
+        <v>4617.639163721004</v>
       </c>
       <c r="C392">
-        <v>54586.26129249817</v>
+        <v>1526552.749057446</v>
       </c>
     </row>
     <row r="393" spans="1:3">
       <c r="A393" s="1">
-        <v>467.9</v>
+        <v>426.7</v>
       </c>
       <c r="B393">
-        <v>2807.668670567588</v>
+        <v>5238.713155203648</v>
       </c>
       <c r="C393">
-        <v>53655.96451350263</v>
+        <v>1409141.749204633</v>
       </c>
     </row>
     <row r="394" spans="1:3">
       <c r="A394" s="1">
-        <v>468.9</v>
+        <v>427.6</v>
       </c>
       <c r="B394">
-        <v>2785.415254717851</v>
+        <v>4998.679747538032</v>
       </c>
       <c r="C394">
-        <v>53005.66773450709</v>
+        <v>1186178.849337102</v>
       </c>
     </row>
     <row r="395" spans="1:3">
       <c r="A395" s="1">
-        <v>469.9</v>
+        <v>428.6</v>
       </c>
       <c r="B395">
-        <v>1963.161838868117</v>
+        <v>4729.753739020676</v>
       </c>
       <c r="C395">
-        <v>53525.37095551156</v>
+        <v>884847.8494842886</v>
       </c>
     </row>
     <row r="396" spans="1:3">
       <c r="A396" s="1">
-        <v>470.8</v>
+        <v>429.6</v>
       </c>
       <c r="B396">
-        <v>2539.133764603357</v>
+        <v>4100.827730503322</v>
       </c>
       <c r="C396">
-        <v>50351.10385441557</v>
+        <v>681426.8496314756</v>
       </c>
     </row>
     <row r="397" spans="1:3">
       <c r="A397" s="1">
-        <v>471.5</v>
+        <v>430.5</v>
       </c>
       <c r="B397">
-        <v>2131.556373508539</v>
+        <v>3600.794322837701</v>
       </c>
       <c r="C397">
-        <v>50378.89610911869</v>
+        <v>476533.949763944</v>
       </c>
     </row>
     <row r="398" spans="1:3">
       <c r="A398" s="1">
-        <v>472.5</v>
+        <v>431.5</v>
       </c>
       <c r="B398">
-        <v>2499.302957658805</v>
+        <v>3371.86831432035</v>
       </c>
       <c r="C398">
-        <v>49818.59933012316</v>
+        <v>346092.9499111311</v>
       </c>
     </row>
     <row r="399" spans="1:3">
       <c r="A399" s="1">
-        <v>473.4</v>
+        <v>432.5</v>
       </c>
       <c r="B399">
-        <v>2835.274883394041</v>
+        <v>3432.942305802995</v>
       </c>
       <c r="C399">
-        <v>51584.3322290272</v>
+        <v>263761.9500583182</v>
       </c>
     </row>
     <row r="400" spans="1:3">
       <c r="A400" s="1">
-        <v>474.4</v>
+        <v>433.2</v>
       </c>
       <c r="B400">
-        <v>2593.021467544307</v>
+        <v>3350.694099840847</v>
       </c>
       <c r="C400">
-        <v>50364.03545003167</v>
+        <v>216735.2501613492</v>
       </c>
     </row>
     <row r="401" spans="1:3">
       <c r="A401" s="1">
-        <v>475.4</v>
+        <v>434.1</v>
       </c>
       <c r="B401">
-        <v>2660.76805169457</v>
+        <v>3010.660692175226</v>
       </c>
       <c r="C401">
-        <v>48583.73867103613</v>
+        <v>186992.3502938175</v>
       </c>
     </row>
     <row r="402" spans="1:3">
       <c r="A402" s="1">
-        <v>476</v>
+        <v>435.1</v>
       </c>
       <c r="B402">
-        <v>3011.41600218473</v>
+        <v>3071.734683657871</v>
       </c>
       <c r="C402">
-        <v>48447.56060363881</v>
+        <v>157121.3504410045</v>
       </c>
     </row>
     <row r="403" spans="1:3">
       <c r="A403" s="1">
-        <v>477.3</v>
+        <v>436.1</v>
       </c>
       <c r="B403">
-        <v>2804.486561580075</v>
+        <v>2412.808675140516</v>
       </c>
       <c r="C403">
-        <v>48259.17479094461</v>
+        <v>146660.3505881916</v>
       </c>
     </row>
     <row r="404" spans="1:3">
       <c r="A404" s="1">
-        <v>478</v>
+        <v>437</v>
       </c>
       <c r="B404">
-        <v>2786.909170485258</v>
+        <v>2772.775267474899</v>
       </c>
       <c r="C404">
-        <v>45786.96704564774</v>
+        <v>135967.45072066</v>
       </c>
     </row>
     <row r="405" spans="1:3">
       <c r="A405" s="1">
-        <v>479</v>
+        <v>438</v>
       </c>
       <c r="B405">
-        <v>3064.655754635524</v>
+        <v>3043.849258957545</v>
       </c>
       <c r="C405">
-        <v>46056.6702666522</v>
+        <v>129276.450867847</v>
       </c>
     </row>
     <row r="406" spans="1:3">
       <c r="A406" s="1">
-        <v>480</v>
+        <v>439</v>
       </c>
       <c r="B406">
-        <v>2762.402338785787</v>
+        <v>3234.92325044019</v>
       </c>
       <c r="C406">
-        <v>45596.37348765667</v>
+        <v>121675.4510150341</v>
       </c>
     </row>
     <row r="407" spans="1:3">
       <c r="A407" s="1">
-        <v>480.9</v>
+        <v>439.9</v>
       </c>
       <c r="B407">
-        <v>3188.374264521026</v>
+        <v>3324.889842774573</v>
       </c>
       <c r="C407">
-        <v>44592.10638656071</v>
+        <v>113392.5511475024</v>
       </c>
     </row>
     <row r="408" spans="1:3">
       <c r="A408" s="1">
-        <v>481.9</v>
+        <v>440.6</v>
       </c>
       <c r="B408">
-        <v>2706.120848671289</v>
+        <v>2692.641636812425</v>
       </c>
       <c r="C408">
-        <v>43921.80960756517</v>
+        <v>106905.8512505333</v>
       </c>
     </row>
     <row r="409" spans="1:3">
       <c r="A409" s="1">
-        <v>482.9</v>
+        <v>441.6</v>
       </c>
       <c r="B409">
-        <v>2523.867432821555</v>
+        <v>2383.71562829507</v>
       </c>
       <c r="C409">
-        <v>43461.51282856963</v>
+        <v>102054.8513977204</v>
       </c>
     </row>
     <row r="410" spans="1:3">
       <c r="A410" s="1">
-        <v>483.5</v>
+        <v>442.6</v>
       </c>
       <c r="B410">
-        <v>2894.515383311711</v>
+        <v>3054.789619777715</v>
       </c>
       <c r="C410">
-        <v>41565.33476117231</v>
+        <v>95303.85154490746</v>
       </c>
     </row>
     <row r="411" spans="1:3">
       <c r="A411" s="1">
-        <v>484.8</v>
+        <v>443.5</v>
       </c>
       <c r="B411">
-        <v>2667.585942707057</v>
+        <v>2414.756212112095</v>
       </c>
       <c r="C411">
-        <v>41676.94894847812</v>
+        <v>92700.95167737582</v>
       </c>
     </row>
     <row r="412" spans="1:3">
       <c r="A412" s="1">
-        <v>485.8</v>
+        <v>444.5</v>
       </c>
       <c r="B412">
-        <v>2755.332526857319</v>
+        <v>2055.830203594739</v>
       </c>
       <c r="C412">
-        <v>40896.65216948258</v>
+        <v>91489.95182456286</v>
       </c>
     </row>
     <row r="413" spans="1:3">
       <c r="A413" s="1">
-        <v>486.8</v>
+        <v>445.5</v>
       </c>
       <c r="B413">
-        <v>2603.079111007586</v>
+        <v>2696.904195077388</v>
       </c>
       <c r="C413">
-        <v>39106.35539048704</v>
+        <v>88348.95197174994</v>
       </c>
     </row>
     <row r="414" spans="1:3">
       <c r="A414" s="1">
-        <v>487.4</v>
+        <v>446.5</v>
       </c>
       <c r="B414">
-        <v>2383.727061497745</v>
+        <v>2497.978186560033</v>
       </c>
       <c r="C414">
-        <v>37740.17732308972</v>
+        <v>84967.95211893698</v>
       </c>
     </row>
     <row r="415" spans="1:3">
       <c r="A415" s="1">
-        <v>488.4</v>
+        <v>446.8</v>
       </c>
       <c r="B415">
-        <v>2831.473645648008</v>
+        <v>2261.300384004826</v>
       </c>
       <c r="C415">
-        <v>35359.88054409419</v>
+        <v>84493.65216309311</v>
       </c>
     </row>
     <row r="416" spans="1:3">
       <c r="A416" s="1">
-        <v>489.4</v>
+        <v>448.1</v>
       </c>
       <c r="B416">
-        <v>2569.220229798274</v>
+        <v>2645.696572932265</v>
       </c>
       <c r="C416">
-        <v>38719.58376509868</v>
+        <v>81418.35235443627</v>
       </c>
     </row>
     <row r="417" spans="1:3">
       <c r="A417" s="1">
-        <v>490.3</v>
+        <v>449</v>
       </c>
       <c r="B417">
-        <v>2975.19215553351</v>
+        <v>2805.663165266648</v>
       </c>
       <c r="C417">
-        <v>37755.3166640027</v>
+        <v>78435.45248690463</v>
       </c>
     </row>
     <row r="418" spans="1:3">
       <c r="A418" s="1">
-        <v>491</v>
+        <v>450</v>
       </c>
       <c r="B418">
-        <v>2757.614764438696</v>
+        <v>2496.737156749293</v>
       </c>
       <c r="C418">
-        <v>34943.10891870582</v>
+        <v>76634.45263409171</v>
       </c>
     </row>
     <row r="419" spans="1:3">
       <c r="A419" s="1">
-        <v>492.3</v>
+        <v>451</v>
       </c>
       <c r="B419">
-        <v>2950.685323834039</v>
+        <v>2147.811148231938</v>
       </c>
       <c r="C419">
-        <v>36084.72310601162</v>
+        <v>75013.45278127876</v>
       </c>
     </row>
     <row r="420" spans="1:3">
       <c r="A420" s="1">
-        <v>493.2</v>
+        <v>452</v>
       </c>
       <c r="B420">
-        <v>3106.657249569278</v>
+        <v>2268.885139714583</v>
       </c>
       <c r="C420">
-        <v>34780.45600491564</v>
+        <v>71592.45292846579</v>
       </c>
     </row>
     <row r="421" spans="1:3">
       <c r="A421" s="1">
-        <v>493.9</v>
+        <v>452.9</v>
       </c>
       <c r="B421">
-        <v>2869.079858474464</v>
+        <v>2328.851732048963</v>
       </c>
       <c r="C421">
-        <v>34218.24825961876</v>
+        <v>69349.55306093415</v>
       </c>
     </row>
     <row r="422" spans="1:3">
       <c r="A422" s="1">
-        <v>494.8</v>
+        <v>453.9</v>
       </c>
       <c r="B422">
-        <v>2985.051784209701</v>
+        <v>2489.925723531611</v>
       </c>
       <c r="C422">
-        <v>34263.98115852279</v>
+        <v>68618.55320812123</v>
       </c>
     </row>
     <row r="423" spans="1:3">
       <c r="A423" s="1">
-        <v>495.8</v>
+        <v>454.9</v>
       </c>
       <c r="B423">
-        <v>3272.798368359966</v>
+        <v>2330.999715014257</v>
       </c>
       <c r="C423">
-        <v>31943.68437952726</v>
+        <v>65747.55335530828</v>
       </c>
     </row>
     <row r="424" spans="1:3">
       <c r="A424" s="1">
-        <v>496.8</v>
+        <v>455.9</v>
       </c>
       <c r="B424">
-        <v>2860.544952510229</v>
+        <v>1762.073706496902</v>
       </c>
       <c r="C424">
-        <v>32833.38760053172</v>
+        <v>67116.55350249533</v>
       </c>
     </row>
     <row r="425" spans="1:3">
       <c r="A425" s="1">
-        <v>497.8</v>
+        <v>456.5</v>
       </c>
       <c r="B425">
-        <v>2688.291536660495</v>
+        <v>2208.718101386488</v>
       </c>
       <c r="C425">
-        <v>30153.0908215362</v>
+        <v>62977.95359080756</v>
       </c>
     </row>
     <row r="426" spans="1:3">
       <c r="A426" s="1">
-        <v>498.8</v>
+        <v>457.5</v>
       </c>
       <c r="B426">
-        <v>2546.038120810758</v>
+        <v>2039.792092869136</v>
       </c>
       <c r="C426">
-        <v>29632.79404254066</v>
+        <v>61316.95373799461</v>
       </c>
     </row>
     <row r="427" spans="1:3">
       <c r="A427" s="1">
-        <v>499.7</v>
+        <v>458.5</v>
       </c>
       <c r="B427">
-        <v>2472.010046545997</v>
+        <v>2140.866084351782</v>
       </c>
       <c r="C427">
-        <v>30918.52694144468</v>
+        <v>61355.95388518168</v>
       </c>
     </row>
     <row r="428" spans="1:3">
       <c r="A428" s="1">
-        <v>500.4</v>
+        <v>459.5</v>
       </c>
       <c r="B428">
-        <v>2564.432655451184</v>
+        <v>2441.940075834427</v>
       </c>
       <c r="C428">
-        <v>27326.3191961478</v>
+        <v>60124.95403236873</v>
       </c>
     </row>
     <row r="429" spans="1:3">
       <c r="A429" s="1">
-        <v>501.4</v>
+        <v>460.5</v>
       </c>
       <c r="B429">
-        <v>3002.179239601446</v>
+        <v>2493.014067317072</v>
       </c>
       <c r="C429">
-        <v>30186.02241715227</v>
+        <v>56713.95417955578</v>
       </c>
     </row>
     <row r="430" spans="1:3">
       <c r="A430" s="1">
-        <v>502</v>
+        <v>461.1</v>
       </c>
       <c r="B430">
-        <v>2662.827190091606</v>
+        <v>2449.658462206662</v>
       </c>
       <c r="C430">
-        <v>29869.84434975495</v>
+        <v>57985.35426786802</v>
       </c>
     </row>
     <row r="431" spans="1:3">
       <c r="A431" s="1">
-        <v>503.3</v>
+        <v>462.4</v>
       </c>
       <c r="B431">
-        <v>2745.897749486948</v>
+        <v>2324.054651134096</v>
       </c>
       <c r="C431">
-        <v>28601.45853706076</v>
+        <v>55560.05445921121</v>
       </c>
     </row>
     <row r="432" spans="1:3">
       <c r="A432" s="1">
-        <v>504.3</v>
+        <v>463.4</v>
       </c>
       <c r="B432">
-        <v>2983.644333637214</v>
+        <v>2075.128642616745</v>
       </c>
       <c r="C432">
-        <v>29181.16175806522</v>
+        <v>55439.05460639826</v>
       </c>
     </row>
     <row r="433" spans="1:3">
       <c r="A433" s="1">
-        <v>505.3</v>
+        <v>464.3</v>
       </c>
       <c r="B433">
-        <v>2601.390917787477</v>
+        <v>2385.095234951124</v>
       </c>
       <c r="C433">
-        <v>27040.8649790697</v>
+        <v>56666.15473886661</v>
       </c>
     </row>
     <row r="434" spans="1:3">
       <c r="A434" s="1">
-        <v>506.2</v>
+        <v>465</v>
       </c>
       <c r="B434">
-        <v>3247.362843522716</v>
+        <v>2372.847028988976</v>
       </c>
       <c r="C434">
-        <v>26416.59787797372</v>
+        <v>54529.45484189754</v>
       </c>
     </row>
     <row r="435" spans="1:3">
       <c r="A435" s="1">
-        <v>506.9</v>
+        <v>466</v>
       </c>
       <c r="B435">
-        <v>2339.785452427902</v>
+        <v>2253.921020471621</v>
       </c>
       <c r="C435">
-        <v>25434.39013267684</v>
+        <v>53348.45498908462</v>
       </c>
     </row>
     <row r="436" spans="1:3">
       <c r="A436" s="1">
-        <v>507.8</v>
+        <v>466.9</v>
       </c>
       <c r="B436">
-        <v>2905.757378163139</v>
+        <v>1633.887612806005</v>
       </c>
       <c r="C436">
-        <v>24230.12303158086</v>
+        <v>52625.55512155297</v>
       </c>
     </row>
     <row r="437" spans="1:3">
       <c r="A437" s="1">
-        <v>508.8</v>
+        <v>467.9</v>
       </c>
       <c r="B437">
-        <v>2773.503962313405</v>
+        <v>2364.96160428865</v>
       </c>
       <c r="C437">
-        <v>24319.82625258532</v>
+        <v>51674.55526874002</v>
       </c>
     </row>
     <row r="438" spans="1:3">
       <c r="A438" s="1">
-        <v>509.8</v>
+        <v>468.9</v>
       </c>
       <c r="B438">
-        <v>2881.250546463667</v>
+        <v>2336.035595771295</v>
       </c>
       <c r="C438">
-        <v>24499.5294735898</v>
+        <v>51003.55541592707</v>
       </c>
     </row>
     <row r="439" spans="1:3">
       <c r="A439" s="1">
-        <v>510.8</v>
+        <v>469.9</v>
       </c>
       <c r="B439">
-        <v>3068.997130613933</v>
+        <v>1507.10958725394</v>
       </c>
       <c r="C439">
-        <v>27659.23269459427</v>
+        <v>51502.55556311415</v>
       </c>
     </row>
     <row r="440" spans="1:3">
       <c r="A440" s="1">
-        <v>511.7</v>
+        <v>470.8</v>
       </c>
       <c r="B440">
-        <v>3384.969056349169</v>
+        <v>2077.076179588323</v>
       </c>
       <c r="C440">
-        <v>23914.96559349828</v>
+        <v>48309.65569558249</v>
       </c>
     </row>
     <row r="441" spans="1:3">
       <c r="A441" s="1">
-        <v>512.7</v>
+        <v>471.5</v>
       </c>
       <c r="B441">
-        <v>3112.715640499436</v>
+        <v>1664.827973626175</v>
       </c>
       <c r="C441">
-        <v>22514.66881450274</v>
+        <v>48322.95579861342</v>
       </c>
     </row>
     <row r="442" spans="1:3">
       <c r="A442" s="1">
-        <v>513.3</v>
+        <v>472.5</v>
       </c>
       <c r="B442">
-        <v>2933.363590989591</v>
+        <v>2025.90196510882</v>
       </c>
       <c r="C442">
-        <v>23358.49074710544</v>
+        <v>47741.95594580047</v>
       </c>
     </row>
     <row r="443" spans="1:3">
       <c r="A443" s="1">
-        <v>514.7</v>
+        <v>473.4</v>
       </c>
       <c r="B443">
-        <v>2518.208808799964</v>
+        <v>2355.8685574432</v>
       </c>
       <c r="C443">
-        <v>21424.07525651169</v>
+        <v>49489.05607826883</v>
       </c>
     </row>
     <row r="444" spans="1:3">
       <c r="A444" s="1">
-        <v>515.6</v>
+        <v>474.4</v>
       </c>
       <c r="B444">
-        <v>3074.180734535204</v>
+        <v>2106.942548925845</v>
       </c>
       <c r="C444">
-        <v>21129.8081554157</v>
+        <v>48248.0562254559</v>
       </c>
     </row>
     <row r="445" spans="1:3">
       <c r="A445" s="1">
-        <v>516.3</v>
+        <v>475.4</v>
       </c>
       <c r="B445">
-        <v>3016.603343440386</v>
+        <v>2168.016540408494</v>
       </c>
       <c r="C445">
-        <v>22137.60041011883</v>
+        <v>46447.05637264295</v>
       </c>
     </row>
     <row r="446" spans="1:3">
       <c r="A446" s="1">
-        <v>517.3</v>
+        <v>476</v>
       </c>
       <c r="B446">
-        <v>2584.349927590652</v>
+        <v>2514.66093529808</v>
       </c>
       <c r="C446">
-        <v>20337.30363112331</v>
+        <v>46298.45646095519</v>
       </c>
     </row>
     <row r="447" spans="1:3">
       <c r="A447" s="1">
-        <v>518.2</v>
+        <v>477.3</v>
       </c>
       <c r="B447">
-        <v>3390.321853325892</v>
+        <v>2299.057124225518</v>
       </c>
       <c r="C447">
-        <v>21673.03653002732</v>
+        <v>46083.15665229836</v>
       </c>
     </row>
     <row r="448" spans="1:3">
       <c r="A448" s="1">
-        <v>519.2</v>
+        <v>478</v>
       </c>
       <c r="B448">
-        <v>2848.068437476154</v>
+        <v>2276.80891826337</v>
       </c>
       <c r="C448">
-        <v>21102.73975103179</v>
+        <v>43596.45675532932</v>
       </c>
     </row>
     <row r="449" spans="1:3">
       <c r="A449" s="1">
-        <v>520.2</v>
+        <v>479</v>
       </c>
       <c r="B449">
-        <v>2895.815021626417</v>
+        <v>2547.882909746019</v>
       </c>
       <c r="C449">
-        <v>18172.44297203625</v>
+        <v>43845.45690251636</v>
       </c>
     </row>
     <row r="450" spans="1:3">
       <c r="A450" s="1">
-        <v>521.2</v>
+        <v>480</v>
       </c>
       <c r="B450">
-        <v>3143.561605776683</v>
+        <v>2238.95690122866</v>
       </c>
       <c r="C450">
-        <v>18042.14619304073</v>
+        <v>43364.45704970341</v>
       </c>
     </row>
     <row r="451" spans="1:3">
       <c r="A451" s="1">
-        <v>522.1</v>
+        <v>480.9</v>
       </c>
       <c r="B451">
-        <v>2689.533531511923</v>
+        <v>2658.923493563043</v>
       </c>
       <c r="C451">
-        <v>19577.87909194475</v>
+        <v>42341.55718217176</v>
       </c>
     </row>
     <row r="452" spans="1:3">
       <c r="A452" s="1">
-        <v>522.8</v>
+        <v>481.9</v>
       </c>
       <c r="B452">
-        <v>2761.956140417105</v>
+        <v>2169.997485045688</v>
       </c>
       <c r="C452">
-        <v>17825.67134664787</v>
+        <v>41650.55732935881</v>
       </c>
     </row>
     <row r="453" spans="1:3">
       <c r="A453" s="1">
-        <v>523.8</v>
+        <v>482.9</v>
       </c>
       <c r="B453">
-        <v>2899.702724567368</v>
+        <v>1981.071476528333</v>
       </c>
       <c r="C453">
-        <v>16745.37456765233</v>
+        <v>41169.55747654589</v>
       </c>
     </row>
     <row r="454" spans="1:3">
       <c r="A454" s="1">
-        <v>524.7</v>
+        <v>483.5</v>
       </c>
       <c r="B454">
-        <v>2885.674650302611</v>
+        <v>2347.715871417924</v>
       </c>
       <c r="C454">
-        <v>17651.10746655635</v>
+        <v>39260.95756485811</v>
       </c>
     </row>
     <row r="455" spans="1:3">
       <c r="A455" s="1">
-        <v>525.7</v>
+        <v>484.8</v>
       </c>
       <c r="B455">
-        <v>2783.421234452874</v>
+        <v>2112.112060345361</v>
       </c>
       <c r="C455">
-        <v>16930.81068756082</v>
+        <v>39345.65775620129</v>
       </c>
     </row>
     <row r="456" spans="1:3">
       <c r="A456" s="1">
-        <v>526.7</v>
+        <v>485.8</v>
       </c>
       <c r="B456">
-        <v>3011.167818603136</v>
+        <v>2193.186051828006</v>
       </c>
       <c r="C456">
-        <v>16000.51390856529</v>
+        <v>38544.65790338833</v>
       </c>
     </row>
     <row r="457" spans="1:3">
       <c r="A457" s="1">
-        <v>527.3</v>
+        <v>486.8</v>
       </c>
       <c r="B457">
-        <v>3441.815769093295</v>
+        <v>2034.260043310652</v>
       </c>
       <c r="C457">
-        <v>16264.33584116798</v>
+        <v>36733.6580505754</v>
       </c>
     </row>
     <row r="458" spans="1:3">
       <c r="A458" s="1">
-        <v>528.6</v>
+        <v>487.4</v>
       </c>
       <c r="B458">
-        <v>3074.886328488638</v>
+        <v>1810.904438200242</v>
       </c>
       <c r="C458">
-        <v>14285.95002847378</v>
+        <v>35355.05813888763</v>
       </c>
     </row>
     <row r="459" spans="1:3">
       <c r="A459" s="1">
-        <v>529.6</v>
+        <v>488.4</v>
       </c>
       <c r="B459">
-        <v>2912.632912638904</v>
+        <v>2251.978429682883</v>
       </c>
       <c r="C459">
-        <v>13345.65324947825</v>
+        <v>32954.05828607469</v>
       </c>
     </row>
     <row r="460" spans="1:3">
       <c r="A460" s="1">
-        <v>530.5</v>
+        <v>489.4</v>
       </c>
       <c r="B460">
-        <v>3478.604838374144</v>
+        <v>1983.052421165532</v>
       </c>
       <c r="C460">
-        <v>16011.38614838227</v>
+        <v>36293.05843326174</v>
       </c>
     </row>
     <row r="461" spans="1:3">
       <c r="A461" s="1">
-        <v>531.2</v>
+        <v>490.3</v>
       </c>
       <c r="B461">
-        <v>3351.02744727933</v>
+        <v>2383.019013499912</v>
       </c>
       <c r="C461">
-        <v>14339.17840308539</v>
+        <v>35310.1585657301</v>
       </c>
     </row>
     <row r="462" spans="1:3">
       <c r="A462" s="1">
-        <v>532.1</v>
+        <v>491</v>
       </c>
       <c r="B462">
-        <v>3016.999373014566</v>
+        <v>2160.770807537763</v>
       </c>
       <c r="C462">
-        <v>13414.91130198941</v>
+        <v>32483.45866876104</v>
       </c>
     </row>
     <row r="463" spans="1:3">
       <c r="A463" s="1">
-        <v>533.1</v>
+        <v>492.3</v>
       </c>
       <c r="B463">
-        <v>3314.745957164832</v>
+        <v>2345.166996465201</v>
       </c>
       <c r="C463">
-        <v>13284.61452299388</v>
+        <v>33598.15886010422</v>
       </c>
     </row>
     <row r="464" spans="1:3">
       <c r="A464" s="1">
-        <v>534.1</v>
+        <v>493.2</v>
       </c>
       <c r="B464">
-        <v>2712.492541315095</v>
+        <v>2495.133588799585</v>
       </c>
       <c r="C464">
-        <v>11954.31774399835</v>
+        <v>32275.25899257257</v>
       </c>
     </row>
     <row r="465" spans="1:3">
       <c r="A465" s="1">
-        <v>535.1</v>
+        <v>493.9</v>
       </c>
       <c r="B465">
-        <v>2740.239125465357</v>
+        <v>2252.885382837437</v>
       </c>
       <c r="C465">
-        <v>14844.02096500281</v>
+        <v>31698.5590956035</v>
       </c>
     </row>
     <row r="466" spans="1:3">
       <c r="A466" s="1">
-        <v>536</v>
+        <v>494.8</v>
       </c>
       <c r="B466">
-        <v>2986.211051200597</v>
+        <v>2362.851975171816</v>
       </c>
       <c r="C466">
-        <v>13739.75386390684</v>
+        <v>31725.65922807186</v>
       </c>
     </row>
     <row r="467" spans="1:3">
       <c r="A467" s="1">
-        <v>537</v>
+        <v>495.8</v>
       </c>
       <c r="B467">
-        <v>3213.957635350863</v>
+        <v>2643.925966654465</v>
       </c>
       <c r="C467">
-        <v>13289.45708491131</v>
+        <v>29384.6593752589</v>
       </c>
     </row>
     <row r="468" spans="1:3">
       <c r="A468" s="1">
-        <v>537.6</v>
+        <v>496.8</v>
       </c>
       <c r="B468">
-        <v>2714.605585841019</v>
+        <v>2224.99995813711</v>
       </c>
       <c r="C468">
-        <v>13813.27901751399</v>
+        <v>30253.65952244597</v>
       </c>
     </row>
     <row r="469" spans="1:3">
       <c r="A469" s="1">
-        <v>538.6</v>
+        <v>497.8</v>
       </c>
       <c r="B469">
-        <v>3232.352169991285</v>
+        <v>2046.073949619755</v>
       </c>
       <c r="C469">
-        <v>12982.98223851845</v>
+        <v>27552.65966963303</v>
       </c>
     </row>
     <row r="470" spans="1:3">
       <c r="A470" s="1">
-        <v>539.6</v>
+        <v>498.8</v>
       </c>
       <c r="B470">
-        <v>2480.098754141551</v>
+        <v>1897.1479411024</v>
       </c>
       <c r="C470">
-        <v>11352.68545952291</v>
+        <v>27011.65981682008</v>
       </c>
     </row>
     <row r="471" spans="1:3">
       <c r="A471" s="1">
-        <v>540.6</v>
+        <v>499.7</v>
       </c>
       <c r="B471">
-        <v>2887.845338291814</v>
+        <v>1817.114533436783</v>
       </c>
       <c r="C471">
-        <v>11992.38868052739</v>
+        <v>28278.75994928843</v>
       </c>
     </row>
     <row r="472" spans="1:3">
       <c r="A472" s="1">
-        <v>541.5</v>
+        <v>500.4</v>
       </c>
       <c r="B472">
-        <v>3043.817264027053</v>
+        <v>1904.866327474632</v>
       </c>
       <c r="C472">
-        <v>11098.12157943141</v>
+        <v>24672.06005231939</v>
       </c>
     </row>
     <row r="473" spans="1:3">
       <c r="A473" s="1">
-        <v>542.5</v>
+        <v>501.4</v>
       </c>
       <c r="B473">
-        <v>3301.563848177316</v>
+        <v>2335.94031895728</v>
       </c>
       <c r="C473">
-        <v>12267.82480043587</v>
+        <v>27511.06019950644</v>
       </c>
     </row>
     <row r="474" spans="1:3">
       <c r="A474" s="1">
-        <v>543.5</v>
+        <v>502</v>
       </c>
       <c r="B474">
-        <v>3179.310432327578</v>
+        <v>1992.584713846867</v>
       </c>
       <c r="C474">
-        <v>10707.52802144035</v>
+        <v>27182.46028781867</v>
       </c>
     </row>
     <row r="475" spans="1:3">
       <c r="A475" s="1">
-        <v>544.4</v>
+        <v>503.3</v>
       </c>
       <c r="B475">
-        <v>2935.282358062817</v>
+        <v>2066.980902774305</v>
       </c>
       <c r="C475">
-        <v>9333.260920344364</v>
+        <v>25887.16047916184</v>
       </c>
     </row>
     <row r="476" spans="1:3">
       <c r="A476" s="1">
-        <v>545.4</v>
+        <v>504.3</v>
       </c>
       <c r="B476">
-        <v>3233.028942213084</v>
+        <v>2298.05489425695</v>
       </c>
       <c r="C476">
-        <v>12422.96414134883</v>
+        <v>26446.1606263489</v>
       </c>
     </row>
     <row r="477" spans="1:3">
       <c r="A477" s="1">
-        <v>546.4</v>
+        <v>505.3</v>
       </c>
       <c r="B477">
-        <v>3000.775526363346</v>
+        <v>1909.128885739598</v>
       </c>
       <c r="C477">
-        <v>10962.66736235329</v>
+        <v>24285.16077353596</v>
       </c>
     </row>
     <row r="478" spans="1:3">
       <c r="A478" s="1">
-        <v>547.4</v>
+        <v>506.2</v>
       </c>
       <c r="B478">
-        <v>2658.522110513612</v>
+        <v>2549.095478073978</v>
       </c>
       <c r="C478">
-        <v>11112.37058335777</v>
+        <v>23642.26090600432</v>
       </c>
     </row>
     <row r="479" spans="1:3">
       <c r="A479" s="1">
-        <v>548.3</v>
+        <v>506.9</v>
       </c>
       <c r="B479">
-        <v>3164.494036248848</v>
+        <v>1636.84727211183</v>
       </c>
       <c r="C479">
-        <v>10468.10348226179</v>
+        <v>22645.56100903525</v>
       </c>
     </row>
     <row r="480" spans="1:3">
       <c r="A480" s="1">
-        <v>549</v>
+        <v>507.8</v>
       </c>
       <c r="B480">
-        <v>3046.916645154035</v>
+        <v>2196.813864446213</v>
       </c>
       <c r="C480">
-        <v>10345.89573696491</v>
+        <v>21422.6611415036</v>
       </c>
     </row>
     <row r="481" spans="1:3">
       <c r="A481" s="1">
-        <v>549.9</v>
+        <v>508.8</v>
       </c>
       <c r="B481">
-        <v>3322.888570889274</v>
+        <v>2057.887855928858</v>
       </c>
       <c r="C481">
-        <v>9571.628635868927</v>
+        <v>21491.66128869065</v>
       </c>
     </row>
     <row r="482" spans="1:3">
       <c r="A482" s="1">
-        <v>550.9</v>
+        <v>509.8</v>
       </c>
       <c r="B482">
-        <v>3480.635155039536</v>
+        <v>2158.961847411503</v>
       </c>
       <c r="C482">
-        <v>11091.3318568734</v>
+        <v>21650.66143587773</v>
       </c>
     </row>
     <row r="483" spans="1:3">
       <c r="A483" s="1">
-        <v>551.9</v>
+        <v>510.8</v>
       </c>
       <c r="B483">
-        <v>3148.381739189803</v>
+        <v>2340.035838894148</v>
       </c>
       <c r="C483">
-        <v>11471.03507787787</v>
+        <v>24789.66158306477</v>
       </c>
     </row>
     <row r="484" spans="1:3">
       <c r="A484" s="1">
-        <v>552.8</v>
+        <v>511.7</v>
       </c>
       <c r="B484">
-        <v>3004.353664925039</v>
+        <v>2650.002431228528</v>
       </c>
       <c r="C484">
-        <v>8856.767976781886</v>
+        <v>21026.76171553312</v>
       </c>
     </row>
     <row r="485" spans="1:3">
       <c r="A485" s="1">
-        <v>553.8</v>
+        <v>512.7</v>
       </c>
       <c r="B485">
-        <v>2902.100249075304</v>
+        <v>2371.076422711176</v>
       </c>
       <c r="C485">
-        <v>7556.471197786349</v>
+        <v>19605.76186272017</v>
       </c>
     </row>
     <row r="486" spans="1:3">
       <c r="A486" s="1">
-        <v>554.8</v>
+        <v>513.3</v>
       </c>
       <c r="B486">
-        <v>2779.846833225567</v>
+        <v>2187.720817600763</v>
       </c>
       <c r="C486">
-        <v>6396.174418790827</v>
+        <v>20437.16195103242</v>
       </c>
     </row>
     <row r="487" spans="1:3">
       <c r="A487" s="1">
-        <v>555.7</v>
+        <v>514.7</v>
       </c>
       <c r="B487">
-        <v>3505.818758960806</v>
+        <v>1763.224405676467</v>
       </c>
       <c r="C487">
-        <v>9431.90731769483</v>
+        <v>18473.7621570943</v>
       </c>
     </row>
     <row r="488" spans="1:3">
       <c r="A488" s="1">
-        <v>556.7</v>
+        <v>515.6</v>
       </c>
       <c r="B488">
-        <v>3313.565343111073</v>
+        <v>2313.190998010846</v>
       </c>
       <c r="C488">
-        <v>8111.610538699307</v>
+        <v>18160.86228956265</v>
       </c>
     </row>
     <row r="489" spans="1:3">
       <c r="A489" s="1">
-        <v>557.4</v>
+        <v>516.3</v>
       </c>
       <c r="B489">
-        <v>3315.987952016256</v>
+        <v>2250.942792048698</v>
       </c>
       <c r="C489">
-        <v>7689.402793402432</v>
+        <v>19154.16239259358</v>
       </c>
     </row>
     <row r="490" spans="1:3">
       <c r="A490" s="1">
-        <v>558.3</v>
+        <v>517.3</v>
       </c>
       <c r="B490">
-        <v>3401.959877751495</v>
+        <v>1812.016783531343</v>
       </c>
       <c r="C490">
-        <v>6275.135692306463</v>
+        <v>17333.16253978066</v>
       </c>
     </row>
     <row r="491" spans="1:3">
       <c r="A491" s="1">
-        <v>559.3</v>
+        <v>518.2</v>
       </c>
       <c r="B491">
-        <v>3129.706461901757</v>
+        <v>2611.983375865726</v>
       </c>
       <c r="C491">
-        <v>8004.838913310927</v>
+        <v>18650.26267224899</v>
       </c>
     </row>
     <row r="492" spans="1:3">
       <c r="A492" s="1">
-        <v>560.3</v>
+        <v>519.2</v>
       </c>
       <c r="B492">
-        <v>3497.453046052024</v>
+        <v>2063.057367348371</v>
       </c>
       <c r="C492">
-        <v>9284.54213431539</v>
+        <v>18059.26281943606</v>
       </c>
     </row>
     <row r="493" spans="1:3">
       <c r="A493" s="1">
-        <v>561.2</v>
+        <v>520.2</v>
       </c>
       <c r="B493">
-        <v>3353.424971787264</v>
+        <v>2104.131358831017</v>
       </c>
       <c r="C493">
-        <v>8050.275033219406</v>
+        <v>15108.26296662311</v>
       </c>
     </row>
     <row r="494" spans="1:3">
       <c r="A494" s="1">
-        <v>562.2</v>
+        <v>521.2</v>
       </c>
       <c r="B494">
-        <v>3381.171555937526</v>
+        <v>2345.205350313665</v>
       </c>
       <c r="C494">
-        <v>6749.97825422387</v>
+        <v>14957.26311381016</v>
       </c>
     </row>
     <row r="495" spans="1:3">
       <c r="A495" s="1">
-        <v>563.2</v>
+        <v>522.1</v>
       </c>
       <c r="B495">
-        <v>3228.918140087792</v>
+        <v>1885.171942648045</v>
       </c>
       <c r="C495">
-        <v>7229.681475228334</v>
+        <v>16474.36324627852</v>
       </c>
     </row>
     <row r="496" spans="1:3">
       <c r="A496" s="1">
-        <v>563.8</v>
+        <v>522.8</v>
       </c>
       <c r="B496">
-        <v>3559.566090577948</v>
+        <v>1952.923736685893</v>
       </c>
       <c r="C496">
-        <v>8273.503407831025</v>
+        <v>14707.66334930947</v>
       </c>
     </row>
     <row r="497" spans="1:3">
       <c r="A497" s="1">
-        <v>565.1</v>
+        <v>523.8</v>
       </c>
       <c r="B497">
-        <v>3862.636649973294</v>
+        <v>2083.997728168542</v>
       </c>
       <c r="C497">
-        <v>8285.117595136828</v>
+        <v>13606.66349649652</v>
       </c>
     </row>
     <row r="498" spans="1:3">
       <c r="A498" s="1">
-        <v>565.8</v>
+        <v>524.7</v>
       </c>
       <c r="B498">
-        <v>3495.059258878477</v>
+        <v>2063.964320502922</v>
       </c>
       <c r="C498">
-        <v>9532.909849839967</v>
+        <v>14493.76362896487</v>
       </c>
     </row>
     <row r="499" spans="1:3">
       <c r="A499" s="1">
-        <v>566.7</v>
+        <v>525.7</v>
       </c>
       <c r="B499">
-        <v>3371.031184613717</v>
+        <v>1955.03831198557</v>
       </c>
       <c r="C499">
-        <v>9328.642748743983</v>
+        <v>13752.76377615192</v>
       </c>
     </row>
     <row r="500" spans="1:3">
       <c r="A500" s="1">
-        <v>567.7</v>
+        <v>526.7</v>
       </c>
       <c r="B500">
-        <v>3548.777768763983</v>
+        <v>2176.112303468215</v>
       </c>
       <c r="C500">
-        <v>6838.345969748447</v>
+        <v>12801.76392333898</v>
       </c>
     </row>
     <row r="501" spans="1:3">
       <c r="A501" s="1">
-        <v>568.7</v>
+        <v>527.3</v>
       </c>
       <c r="B501">
-        <v>3926.524352914245</v>
+        <v>2602.756698357801</v>
       </c>
       <c r="C501">
-        <v>7638.04919075291</v>
+        <v>13053.16401165123</v>
       </c>
     </row>
     <row r="502" spans="1:3">
       <c r="A502" s="1">
-        <v>569.7</v>
+        <v>528.6</v>
       </c>
       <c r="B502">
-        <v>3444.270937064508</v>
+        <v>2227.15288728524</v>
       </c>
       <c r="C502">
-        <v>8247.752411757374</v>
+        <v>11047.86420299439</v>
       </c>
     </row>
     <row r="503" spans="1:3">
       <c r="A503" s="1">
-        <v>570.6</v>
+        <v>529.6</v>
       </c>
       <c r="B503">
-        <v>3660.242862799747</v>
+        <v>2058.226878767889</v>
       </c>
       <c r="C503">
-        <v>5093.485310661405</v>
+        <v>10086.86435018144</v>
       </c>
     </row>
     <row r="504" spans="1:3">
       <c r="A504" s="1">
-        <v>571.6</v>
+        <v>530.5</v>
       </c>
       <c r="B504">
-        <v>3237.989446950013</v>
+        <v>2618.193471102268</v>
       </c>
       <c r="C504">
-        <v>5203.188531665869</v>
+        <v>12733.9644826498</v>
       </c>
     </row>
     <row r="505" spans="1:3">
       <c r="A505" s="1">
-        <v>572.2</v>
+        <v>531.2</v>
       </c>
       <c r="B505">
-        <v>3598.637397440169</v>
+        <v>2485.94526514012</v>
       </c>
       <c r="C505">
-        <v>6777.010464268547</v>
+        <v>11047.26458568074</v>
       </c>
     </row>
     <row r="506" spans="1:3">
       <c r="A506" s="1">
-        <v>573.5</v>
+        <v>532.1</v>
       </c>
       <c r="B506">
-        <v>3091.707956835515</v>
+        <v>2145.911857474503</v>
       </c>
       <c r="C506">
-        <v>5398.624651574364</v>
+        <v>10104.36471814909</v>
       </c>
     </row>
     <row r="507" spans="1:3">
       <c r="A507" s="1">
-        <v>574.2</v>
+        <v>533.1</v>
       </c>
       <c r="B507">
-        <v>3664.130565740702</v>
+        <v>2436.985848957144</v>
       </c>
       <c r="C507">
-        <v>7336.416906277488</v>
+        <v>9953.364865336156</v>
       </c>
     </row>
     <row r="508" spans="1:3">
       <c r="A508" s="1">
-        <v>575.1</v>
+        <v>534.1</v>
       </c>
       <c r="B508">
-        <v>2990.102491475938</v>
+        <v>1828.059840439793</v>
       </c>
       <c r="C508">
-        <v>9082.149805181505</v>
+        <v>8602.365012523203</v>
       </c>
     </row>
     <row r="509" spans="1:3">
       <c r="A509" s="1">
-        <v>576.1</v>
+        <v>535.1</v>
       </c>
       <c r="B509">
-        <v>3077.849075626204</v>
+        <v>1849.133831922438</v>
       </c>
       <c r="C509">
-        <v>8751.853026185969</v>
+        <v>11471.36515971027</v>
       </c>
     </row>
     <row r="510" spans="1:3">
       <c r="A510" s="1">
-        <v>577.1</v>
+        <v>536</v>
       </c>
       <c r="B510">
-        <v>3635.595659776466</v>
+        <v>2089.100424256818</v>
       </c>
       <c r="C510">
-        <v>7291.556247190432</v>
+        <v>10348.46529217862</v>
       </c>
     </row>
     <row r="511" spans="1:3">
       <c r="A511" s="1">
-        <v>578</v>
+        <v>537</v>
       </c>
       <c r="B511">
-        <v>3791.567585511706</v>
+        <v>2310.174415739463</v>
       </c>
       <c r="C511">
-        <v>5757.289146094463</v>
+        <v>9877.465439365682</v>
       </c>
     </row>
     <row r="512" spans="1:3">
       <c r="A512" s="1">
-        <v>579</v>
+        <v>537.6</v>
       </c>
       <c r="B512">
-        <v>3879.314169661968</v>
+        <v>1806.818810629053</v>
       </c>
       <c r="C512">
-        <v>7476.992367098926</v>
+        <v>10388.86552767792</v>
       </c>
     </row>
     <row r="513" spans="1:3">
       <c r="A513" s="1">
-        <v>580</v>
+        <v>538.6</v>
       </c>
       <c r="B513">
-        <v>3537.060753812234</v>
+        <v>2317.892802111698</v>
       </c>
       <c r="C513">
-        <v>7896.69558810339</v>
+        <v>9537.865674864963</v>
       </c>
     </row>
     <row r="514" spans="1:3">
       <c r="A514" s="1">
-        <v>581</v>
+        <v>539.6</v>
       </c>
       <c r="B514">
-        <v>3534.807337962497</v>
+        <v>1558.966793594343</v>
       </c>
       <c r="C514">
-        <v>7206.398809107868</v>
+        <v>7886.865822052013</v>
       </c>
     </row>
     <row r="515" spans="1:3">
       <c r="A515" s="1">
-        <v>581.6</v>
+        <v>540.6</v>
       </c>
       <c r="B515">
-        <v>3395.455288452657</v>
+        <v>1960.040785076988</v>
       </c>
       <c r="C515">
-        <v>7130.220741710546</v>
+        <v>8505.86596923909</v>
       </c>
     </row>
     <row r="516" spans="1:3">
       <c r="A516" s="1">
-        <v>582.5</v>
+        <v>541.5</v>
       </c>
       <c r="B516">
-        <v>3291.427214187892</v>
+        <v>2110.007377411368</v>
       </c>
       <c r="C516">
-        <v>7375.953640614563</v>
+        <v>7592.966101707442</v>
       </c>
     </row>
     <row r="517" spans="1:3">
       <c r="A517" s="1">
-        <v>583.5</v>
+        <v>542.5</v>
       </c>
       <c r="B517">
-        <v>3799.173798338159</v>
+        <v>2361.081368894016</v>
       </c>
       <c r="C517">
-        <v>6465.656861619027</v>
+        <v>8741.96624889449</v>
       </c>
     </row>
     <row r="518" spans="1:3">
       <c r="A518" s="1">
-        <v>584.5</v>
+        <v>543.5</v>
       </c>
       <c r="B518">
-        <v>3386.920382488425</v>
+        <v>2232.155360376661</v>
       </c>
       <c r="C518">
-        <v>7325.36008262349</v>
+        <v>7160.966396081539</v>
       </c>
     </row>
     <row r="519" spans="1:3">
       <c r="A519" s="1">
-        <v>585.4</v>
+        <v>544.4</v>
       </c>
       <c r="B519">
-        <v>3742.89230822366</v>
+        <v>1982.121952711041</v>
       </c>
       <c r="C519">
-        <v>8081.092981527521</v>
+        <v>5768.066528549905</v>
       </c>
     </row>
     <row r="520" spans="1:3">
       <c r="A520" s="1">
-        <v>586.4</v>
+        <v>545.4</v>
       </c>
       <c r="B520">
-        <v>3720.638892373926</v>
+        <v>2273.195944193686</v>
       </c>
       <c r="C520">
-        <v>5610.796202531985</v>
+        <v>8837.066675736967</v>
       </c>
     </row>
     <row r="521" spans="1:3">
       <c r="A521" s="1">
-        <v>587.4</v>
+        <v>546.4</v>
       </c>
       <c r="B521">
-        <v>4078.385476524189</v>
+        <v>2034.269935676335</v>
       </c>
       <c r="C521">
-        <v>6130.499423536448</v>
+        <v>7356.066822924016</v>
       </c>
     </row>
     <row r="522" spans="1:3">
       <c r="A522" s="1">
-        <v>588.4</v>
+        <v>547.4</v>
       </c>
       <c r="B522">
-        <v>3786.132060674455</v>
+        <v>1685.34392715898</v>
       </c>
       <c r="C522">
-        <v>6510.202644540926</v>
+        <v>7485.066970111065</v>
       </c>
     </row>
     <row r="523" spans="1:3">
       <c r="A523" s="1">
-        <v>589.3</v>
+        <v>548.3</v>
       </c>
       <c r="B523">
-        <v>3462.103986409692</v>
+        <v>2185.31051949336</v>
       </c>
       <c r="C523">
-        <v>5935.935543444943</v>
+        <v>6822.167102579418</v>
       </c>
     </row>
     <row r="524" spans="1:3">
       <c r="A524" s="1">
-        <v>590.3</v>
+        <v>549</v>
       </c>
       <c r="B524">
-        <v>4089.850570559957</v>
+        <v>2063.062313531211</v>
       </c>
       <c r="C524">
-        <v>7805.638764449406</v>
+        <v>6685.467205610362</v>
       </c>
     </row>
     <row r="525" spans="1:3">
       <c r="A525" s="1">
-        <v>590.9</v>
+        <v>549.9</v>
       </c>
       <c r="B525">
-        <v>3340.498521050114</v>
+        <v>2333.02890586559</v>
       </c>
       <c r="C525">
-        <v>5509.460697052084</v>
+        <v>5892.567338078715</v>
       </c>
     </row>
     <row r="526" spans="1:3">
       <c r="A526" s="1">
-        <v>591.9</v>
+        <v>550.9</v>
       </c>
       <c r="B526">
-        <v>3388.245105200379</v>
+        <v>2484.102897348239</v>
       </c>
       <c r="C526">
-        <v>6029.163918056547</v>
+        <v>7391.567485265778</v>
       </c>
     </row>
     <row r="527" spans="1:3">
       <c r="A527" s="1">
-        <v>592.9</v>
+        <v>551.9</v>
       </c>
       <c r="B527">
-        <v>3835.991689350646</v>
+        <v>2145.176888830884</v>
       </c>
       <c r="C527">
-        <v>5798.867139061011</v>
+        <v>7750.567632452826</v>
       </c>
     </row>
     <row r="528" spans="1:3">
       <c r="A528" s="1">
-        <v>593.9</v>
+        <v>552.8</v>
       </c>
       <c r="B528">
-        <v>3803.738273500908</v>
+        <v>1995.143481165264</v>
       </c>
       <c r="C528">
-        <v>5338.570360065489</v>
+        <v>5117.667764921178</v>
       </c>
     </row>
     <row r="529" spans="1:3">
       <c r="A529" s="1">
-        <v>594.8</v>
+        <v>553.8</v>
       </c>
       <c r="B529">
-        <v>3599.710199236148</v>
+        <v>1886.217472647909</v>
       </c>
       <c r="C529">
-        <v>6404.30325896952</v>
+        <v>3796.66791210824</v>
       </c>
     </row>
     <row r="530" spans="1:3">
       <c r="A530" s="1">
-        <v>595.5</v>
+        <v>554.8</v>
       </c>
       <c r="B530">
-        <v>3792.132808141331</v>
+        <v>1757.291464130558</v>
       </c>
       <c r="C530">
-        <v>5142.095513672644</v>
+        <v>2615.668059295303</v>
       </c>
     </row>
     <row r="531" spans="1:3">
       <c r="A531" s="1">
-        <v>596.8</v>
+        <v>555.7</v>
       </c>
       <c r="B531">
-        <v>3935.203367536676</v>
+        <v>2477.258056464937</v>
       </c>
       <c r="C531">
-        <v>6203.709700978447</v>
+        <v>5632.768191763655</v>
       </c>
     </row>
     <row r="532" spans="1:3">
       <c r="A532" s="1">
-        <v>597.4</v>
+        <v>556.7</v>
       </c>
       <c r="B532">
-        <v>3825.851318026832</v>
+        <v>2278.332047947586</v>
       </c>
       <c r="C532">
-        <v>6217.531633581125</v>
+        <v>4291.768338950703</v>
       </c>
     </row>
     <row r="533" spans="1:3">
       <c r="A533" s="1">
-        <v>598.4</v>
+        <v>557.4</v>
       </c>
       <c r="B533">
-        <v>3793.597902177099</v>
+        <v>2276.083841985434</v>
       </c>
       <c r="C533">
-        <v>6107.234854585588</v>
+        <v>3855.068441981648</v>
       </c>
     </row>
     <row r="534" spans="1:3">
       <c r="A534" s="1">
+        <v>558.3</v>
+      </c>
+      <c r="B534">
+        <v>2356.050434319818</v>
+      </c>
+      <c r="C534">
+        <v>2422.168574450001</v>
+      </c>
+    </row>
+    <row r="535" spans="1:3">
+      <c r="A535" s="1">
+        <v>559.3</v>
+      </c>
+      <c r="B535">
+        <v>2077.124425802463</v>
+      </c>
+      <c r="C535">
+        <v>4131.168721637064</v>
+      </c>
+    </row>
+    <row r="536" spans="1:3">
+      <c r="A536" s="1">
+        <v>560.3</v>
+      </c>
+      <c r="B536">
+        <v>2438.198417285108</v>
+      </c>
+      <c r="C536">
+        <v>5390.168868824112</v>
+      </c>
+    </row>
+    <row r="537" spans="1:3">
+      <c r="A537" s="1">
+        <v>561.2</v>
+      </c>
+      <c r="B537">
+        <v>2288.16500961949</v>
+      </c>
+      <c r="C537">
+        <v>4137.269001292463</v>
+      </c>
+    </row>
+    <row r="538" spans="1:3">
+      <c r="A538" s="1">
+        <v>562.2</v>
+      </c>
+      <c r="B538">
+        <v>2309.239001102136</v>
+      </c>
+      <c r="C538">
+        <v>2816.269148479511</v>
+      </c>
+    </row>
+    <row r="539" spans="1:3">
+      <c r="A539" s="1">
+        <v>563.2</v>
+      </c>
+      <c r="B539">
+        <v>2150.312992584781</v>
+      </c>
+      <c r="C539">
+        <v>3275.269295666574</v>
+      </c>
+    </row>
+    <row r="540" spans="1:3">
+      <c r="A540" s="1">
+        <v>563.8</v>
+      </c>
+      <c r="B540">
+        <v>2476.957387474367</v>
+      </c>
+      <c r="C540">
+        <v>4306.669383978824</v>
+      </c>
+    </row>
+    <row r="541" spans="1:3">
+      <c r="A541" s="1">
+        <v>565.1</v>
+      </c>
+      <c r="B541">
+        <v>2771.353576401809</v>
+      </c>
+      <c r="C541">
+        <v>4291.369575321989</v>
+      </c>
+    </row>
+    <row r="542" spans="1:3">
+      <c r="A542" s="1">
+        <v>565.8</v>
+      </c>
+      <c r="B542">
+        <v>2399.105370439658</v>
+      </c>
+      <c r="C542">
+        <v>5524.669678352921</v>
+      </c>
+    </row>
+    <row r="543" spans="1:3">
+      <c r="A543" s="1">
+        <v>566.7</v>
+      </c>
+      <c r="B543">
+        <v>2269.07196277404</v>
+      </c>
+      <c r="C543">
+        <v>5301.769810821272</v>
+      </c>
+    </row>
+    <row r="544" spans="1:3">
+      <c r="A544" s="1">
+        <v>567.7</v>
+      </c>
+      <c r="B544">
+        <v>2440.145954256685</v>
+      </c>
+      <c r="C544">
+        <v>2790.769958008334</v>
+      </c>
+    </row>
+    <row r="545" spans="1:3">
+      <c r="A545" s="1">
+        <v>568.7</v>
+      </c>
+      <c r="B545">
+        <v>2811.21994573933</v>
+      </c>
+      <c r="C545">
+        <v>3569.770105195397</v>
+      </c>
+    </row>
+    <row r="546" spans="1:3">
+      <c r="A546" s="1">
+        <v>569.7</v>
+      </c>
+      <c r="B546">
+        <v>2322.293937221976</v>
+      </c>
+      <c r="C546">
+        <v>4158.770252382446</v>
+      </c>
+    </row>
+    <row r="547" spans="1:3">
+      <c r="A547" s="1">
+        <v>570.6</v>
+      </c>
+      <c r="B547">
+        <v>2532.260529556359</v>
+      </c>
+      <c r="C547">
+        <v>985.870384850798</v>
+      </c>
+    </row>
+    <row r="548" spans="1:3">
+      <c r="A548" s="1">
+        <v>571.6</v>
+      </c>
+      <c r="B548">
+        <v>2103.334521039004</v>
+      </c>
+      <c r="C548">
+        <v>1074.870532037845</v>
+      </c>
+    </row>
+    <row r="549" spans="1:3">
+      <c r="A549" s="1">
+        <v>572.2</v>
+      </c>
+      <c r="B549">
+        <v>2459.97891592859</v>
+      </c>
+      <c r="C549">
+        <v>2636.270620350081</v>
+      </c>
+    </row>
+    <row r="550" spans="1:3">
+      <c r="A550" s="1">
+        <v>573.5</v>
+      </c>
+      <c r="B550">
+        <v>1944.375104856032</v>
+      </c>
+      <c r="C550">
+        <v>1230.970811693276</v>
+      </c>
+    </row>
+    <row r="551" spans="1:3">
+      <c r="A551" s="1">
+        <v>574.2</v>
+      </c>
+      <c r="B551">
+        <v>2512.126898893884</v>
+      </c>
+      <c r="C551">
+        <v>3154.270914724206</v>
+      </c>
+    </row>
+    <row r="552" spans="1:3">
+      <c r="A552" s="1">
+        <v>575.1</v>
+      </c>
+      <c r="B552">
+        <v>1832.093491228263</v>
+      </c>
+      <c r="C552">
+        <v>4881.371047192559</v>
+      </c>
+    </row>
+    <row r="553" spans="1:3">
+      <c r="A553" s="1">
+        <v>576.1</v>
+      </c>
+      <c r="B553">
+        <v>1913.167482710909</v>
+      </c>
+      <c r="C553">
+        <v>4530.371194379607</v>
+      </c>
+    </row>
+    <row r="554" spans="1:3">
+      <c r="A554" s="1">
+        <v>577.1</v>
+      </c>
+      <c r="B554">
+        <v>2464.241474193557</v>
+      </c>
+      <c r="C554">
+        <v>3049.371341566669</v>
+      </c>
+    </row>
+    <row r="555" spans="1:3">
+      <c r="A555" s="1">
+        <v>578</v>
+      </c>
+      <c r="B555">
+        <v>2614.208066527937</v>
+      </c>
+      <c r="C555">
+        <v>1496.471474035021</v>
+      </c>
+    </row>
+    <row r="556" spans="1:3">
+      <c r="A556" s="1">
+        <v>579</v>
+      </c>
+      <c r="B556">
+        <v>2695.282058010582</v>
+      </c>
+      <c r="C556">
+        <v>3195.471621222084</v>
+      </c>
+    </row>
+    <row r="557" spans="1:3">
+      <c r="A557" s="1">
+        <v>580</v>
+      </c>
+      <c r="B557">
+        <v>2346.356049493227</v>
+      </c>
+      <c r="C557">
+        <v>3594.471768409132</v>
+      </c>
+    </row>
+    <row r="558" spans="1:3">
+      <c r="A558" s="1">
+        <v>581</v>
+      </c>
+      <c r="B558">
+        <v>2337.430040975872</v>
+      </c>
+      <c r="C558">
+        <v>2883.471915596195</v>
+      </c>
+    </row>
+    <row r="559" spans="1:3">
+      <c r="A559" s="1">
+        <v>581.6</v>
+      </c>
+      <c r="B559">
+        <v>2194.074435865462</v>
+      </c>
+      <c r="C559">
+        <v>2794.87200390843</v>
+      </c>
+    </row>
+    <row r="560" spans="1:3">
+      <c r="A560" s="1">
+        <v>582.5</v>
+      </c>
+      <c r="B560">
+        <v>2084.041028199842</v>
+      </c>
+      <c r="C560">
+        <v>3021.972136376782</v>
+      </c>
+    </row>
+    <row r="561" spans="1:3">
+      <c r="A561" s="1">
+        <v>583.5</v>
+      </c>
+      <c r="B561">
+        <v>2585.115019682487</v>
+      </c>
+      <c r="C561">
+        <v>2090.972283563844</v>
+      </c>
+    </row>
+    <row r="562" spans="1:3">
+      <c r="A562" s="1">
+        <v>584.5</v>
+      </c>
+      <c r="B562">
+        <v>2166.189011165132</v>
+      </c>
+      <c r="C562">
+        <v>2929.972430750893</v>
+      </c>
+    </row>
+    <row r="563" spans="1:3">
+      <c r="A563" s="1">
+        <v>585.4</v>
+      </c>
+      <c r="B563">
+        <v>2516.155603499511</v>
+      </c>
+      <c r="C563">
+        <v>3667.072563219246</v>
+      </c>
+    </row>
+    <row r="564" spans="1:3">
+      <c r="A564" s="1">
+        <v>586.4</v>
+      </c>
+      <c r="B564">
+        <v>2487.22959498216</v>
+      </c>
+      <c r="C564">
+        <v>1176.072710406308</v>
+      </c>
+    </row>
+    <row r="565" spans="1:3">
+      <c r="A565" s="1">
+        <v>587.4</v>
+      </c>
+      <c r="B565">
+        <v>2838.303586464805</v>
+      </c>
+      <c r="C565">
+        <v>1675.07285759337</v>
+      </c>
+    </row>
+    <row r="566" spans="1:3">
+      <c r="A566" s="1">
+        <v>588.4</v>
+      </c>
+      <c r="B566">
+        <v>2539.37757794745</v>
+      </c>
+      <c r="C566">
+        <v>2034.073004780419</v>
+      </c>
+    </row>
+    <row r="567" spans="1:3">
+      <c r="A567" s="1">
+        <v>589.3</v>
+      </c>
+      <c r="B567">
+        <v>2209.34417028183</v>
+      </c>
+      <c r="C567">
+        <v>1441.173137248772</v>
+      </c>
+    </row>
+    <row r="568" spans="1:3">
+      <c r="A568" s="1">
+        <v>590.3</v>
+      </c>
+      <c r="B568">
+        <v>2830.418161764479</v>
+      </c>
+      <c r="C568">
+        <v>3290.173284435834</v>
+      </c>
+    </row>
+    <row r="569" spans="1:3">
+      <c r="A569" s="1">
+        <v>590.9</v>
+      </c>
+      <c r="B569">
+        <v>2077.062556654065</v>
+      </c>
+      <c r="C569">
+        <v>981.5733727480688</v>
+      </c>
+    </row>
+    <row r="570" spans="1:3">
+      <c r="A570" s="1">
+        <v>591.9</v>
+      </c>
+      <c r="B570">
+        <v>2118.13654813671</v>
+      </c>
+      <c r="C570">
+        <v>1480.573519935132</v>
+      </c>
+    </row>
+    <row r="571" spans="1:3">
+      <c r="A571" s="1">
+        <v>592.9</v>
+      </c>
+      <c r="B571">
+        <v>2559.210539619355</v>
+      </c>
+      <c r="C571">
+        <v>1229.57366712218</v>
+      </c>
+    </row>
+    <row r="572" spans="1:3">
+      <c r="A572" s="1">
+        <v>593.9</v>
+      </c>
+      <c r="B572">
+        <v>2520.284531102003</v>
+      </c>
+      <c r="C572">
+        <v>748.5738143092282</v>
+      </c>
+    </row>
+    <row r="573" spans="1:3">
+      <c r="A573" s="1">
+        <v>594.8</v>
+      </c>
+      <c r="B573">
+        <v>2310.251123436383</v>
+      </c>
+      <c r="C573">
+        <v>1795.673946777595</v>
+      </c>
+    </row>
+    <row r="574" spans="1:3">
+      <c r="A574" s="1">
+        <v>595.5</v>
+      </c>
+      <c r="B574">
+        <v>2498.002917474235</v>
+      </c>
+      <c r="C574">
+        <v>518.9740498085253</v>
+      </c>
+    </row>
+    <row r="575" spans="1:3">
+      <c r="A575" s="1">
+        <v>596.8</v>
+      </c>
+      <c r="B575">
+        <v>2632.399106401673</v>
+      </c>
+      <c r="C575">
+        <v>1553.674241151706</v>
+      </c>
+    </row>
+    <row r="576" spans="1:3">
+      <c r="A576" s="1">
+        <v>597.4</v>
+      </c>
+      <c r="B576">
+        <v>2519.04350129126</v>
+      </c>
+      <c r="C576">
+        <v>1555.07432946394</v>
+      </c>
+    </row>
+    <row r="577" spans="1:3">
+      <c r="A577" s="1">
+        <v>598.4</v>
+      </c>
+      <c r="B577">
+        <v>2480.117492773908</v>
+      </c>
+      <c r="C577">
+        <v>1424.074476650988</v>
+      </c>
+    </row>
+    <row r="578" spans="1:3">
+      <c r="A578" s="1">
         <v>599.3</v>
       </c>
-      <c r="B534">
-        <v>4199.569827912333</v>
-      </c>
-      <c r="C534">
-        <v>6262.967753489605</v>
+      <c r="B578">
+        <v>2880.084085108288</v>
+      </c>
+      <c r="C578">
+        <v>1561.17460911934</v>
+      </c>
+    </row>
+    <row r="579" spans="1:3">
+      <c r="A579" s="1">
+        <v>600.3</v>
+      </c>
+      <c r="B579">
+        <v>1771.158076590933</v>
+      </c>
+      <c r="C579">
+        <v>1020.174756306403</v>
+      </c>
+    </row>
+    <row r="580" spans="1:3">
+      <c r="A580" s="1">
+        <v>601.3</v>
+      </c>
+      <c r="B580">
+        <v>2832.232068073578</v>
+      </c>
+      <c r="C580">
+        <v>1299.174903493466</v>
+      </c>
+    </row>
+    <row r="581" spans="1:3">
+      <c r="A581" s="1">
+        <v>602.2</v>
+      </c>
+      <c r="B581">
+        <v>2832.198660407961</v>
+      </c>
+      <c r="C581">
+        <v>6.275035961817252</v>
       </c>
     </row>
   </sheetData>
